--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_17_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_17_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-662098.8132183398</v>
+        <v>-664991.7619113448</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673438</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -677,37 +677,37 @@
         <v>12.32367389561016</v>
       </c>
       <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
         <v>13.99145537648747</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>12.32367389561017</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -744,10 +744,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>12.32367389561016</v>
+        <v>13.99145537648747</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>13.99145537648747</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>13.99145537648747</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>13.99145537648747</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>13.99145537648747</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.99145537648747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -823,64 +823,64 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>13.99145537648747</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>13.99145537648747</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
         <v>12.32367389561017</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
         <v>13.99145537648747</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>13.99145537648747</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>13.99145537648747</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>57.45008714488066</v>
       </c>
       <c r="F5" t="n">
-        <v>50.60203675721048</v>
+        <v>57.45008714488066</v>
       </c>
       <c r="G5" t="n">
-        <v>57.45008714488022</v>
+        <v>13.77601576816034</v>
       </c>
       <c r="H5" t="n">
-        <v>57.45008714488022</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>57.45008714488022</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>53.96618300274946</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>40.30992513118174</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -975,13 +975,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>57.45008714488066</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1.161682993537427</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>57.45008714488066</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>49.44035376367344</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>50.60203675721048</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>57.45008714488022</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>57.45008714488022</v>
+        <v>57.45008714488066</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>57.45008714488022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>57.45008714488022</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>57.45008714488066</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>44.94135859580714</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>28.8164660331406</v>
+        <v>28.81646603314051</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>57.45008714488066</v>
       </c>
       <c r="T7" t="n">
-        <v>57.45008714488022</v>
+        <v>34.29429927314388</v>
       </c>
       <c r="U7" t="n">
-        <v>21.78557072406988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>57.45008714488022</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>157.1187419577134</v>
       </c>
       <c r="H8" t="n">
-        <v>142.9257124785032</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>131.4600546760547</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>21.12316271950942</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>157.1187419577134</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>117.2670251968445</v>
       </c>
     </row>
     <row r="9">
@@ -1212,22 +1212,22 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>139.2399640342163</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.1187419577134</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.2469034849667</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>101.6444647650348</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1257,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>32.071591919214</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>151.3140530013673</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>157.1187419577134</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>54.59994167199474</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>140.7811695203938</v>
       </c>
       <c r="C10" t="n">
         <v>157.1187419577134</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>154.0531901378539</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>28.36014035361792</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>9.177839155320683</v>
       </c>
       <c r="R10" t="n">
-        <v>135.9554396389582</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>122.0155107261706</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>157.1187419577134</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1370,25 +1370,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>166.9920602376575</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>402.7106095258315</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-1.56319401867222e-13</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>70.07876395770403</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>171.290008215027</v>
       </c>
     </row>
     <row r="14">
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1625,7 +1625,7 @@
         <v>291.2403613834999</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>28.90056660389956</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>101.6950537740603</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>202.4786139429426</v>
       </c>
       <c r="U14" t="n">
         <v>250.9688673339484</v>
@@ -1667,13 +1667,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>333.7693165548687</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>110.3524419080605</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>87.89778431512082</v>
       </c>
       <c r="I15" t="n">
-        <v>12.76005920853822</v>
+        <v>12.76005920853825</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>124.8757279762148</v>
+        <v>124.8757279762149</v>
       </c>
       <c r="T15" t="n">
         <v>190.0074582735027</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>143.4436781526118</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>91.91693778434406</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>82.30038209396098</v>
+        <v>82.30038209396102</v>
       </c>
       <c r="S16" t="n">
-        <v>187.1986443782762</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>218.9187567628735</v>
+        <v>213.6594224793105</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2037931948048</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>122.5076815308044</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112665</v>
       </c>
       <c r="C17" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D17" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684689</v>
       </c>
       <c r="E17" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200477</v>
       </c>
       <c r="F17" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G17" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H17" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947558</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295135</v>
       </c>
       <c r="T17" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545722</v>
       </c>
       <c r="U17" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645687</v>
       </c>
       <c r="V17" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179208</v>
       </c>
       <c r="W17" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X17" t="n">
-        <v>338.1208983262551</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y17" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038395</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297232</v>
       </c>
       <c r="C19" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464138</v>
       </c>
       <c r="D19" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659983</v>
       </c>
       <c r="E19" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943551</v>
       </c>
       <c r="F19" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707172</v>
       </c>
       <c r="G19" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510299</v>
       </c>
       <c r="H19" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442996</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453002</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221567</v>
       </c>
       <c r="S19" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424832</v>
       </c>
       <c r="T19" t="n">
-        <v>186.4872700401421</v>
+        <v>186.4872700401419</v>
       </c>
       <c r="U19" t="n">
-        <v>254.5831063612652</v>
+        <v>254.583106361265</v>
       </c>
       <c r="V19" t="n">
-        <v>220.5274409716141</v>
+        <v>220.5274409716139</v>
       </c>
       <c r="W19" t="n">
-        <v>254.9127959843771</v>
+        <v>254.9127959843769</v>
       </c>
       <c r="X19" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368231</v>
       </c>
       <c r="Y19" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998807</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112665</v>
       </c>
       <c r="C20" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187934</v>
       </c>
       <c r="D20" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684688</v>
       </c>
       <c r="E20" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200477</v>
       </c>
       <c r="F20" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894973</v>
       </c>
       <c r="G20" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247496</v>
       </c>
       <c r="H20" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947557</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295254</v>
       </c>
       <c r="T20" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545722</v>
       </c>
       <c r="U20" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645687</v>
       </c>
       <c r="V20" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179208</v>
       </c>
       <c r="W20" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651989</v>
       </c>
       <c r="X20" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262549</v>
       </c>
       <c r="Y20" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038395</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297232</v>
       </c>
       <c r="C22" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464137</v>
       </c>
       <c r="D22" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659982</v>
       </c>
       <c r="E22" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943551</v>
       </c>
       <c r="F22" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707209</v>
       </c>
       <c r="G22" t="n">
-        <v>134.0758985510282</v>
+        <v>134.075898551028</v>
       </c>
       <c r="H22" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442995</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139452996</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221562</v>
       </c>
       <c r="S22" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424831</v>
       </c>
       <c r="T22" t="n">
-        <v>186.4872700401421</v>
+        <v>186.4872700401419</v>
       </c>
       <c r="U22" t="n">
-        <v>254.5831063612652</v>
+        <v>254.583106361265</v>
       </c>
       <c r="V22" t="n">
-        <v>220.5274409716141</v>
+        <v>220.5274409716139</v>
       </c>
       <c r="W22" t="n">
-        <v>254.9127959843771</v>
+        <v>254.9127959843769</v>
       </c>
       <c r="X22" t="n">
-        <v>194.0994530368232</v>
+        <v>194.099453036823</v>
       </c>
       <c r="Y22" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998807</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112665</v>
       </c>
       <c r="C23" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D23" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684689</v>
       </c>
       <c r="E23" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200477</v>
       </c>
       <c r="F23" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G23" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H23" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947558</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295165</v>
       </c>
       <c r="T23" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545722</v>
       </c>
       <c r="U23" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645687</v>
       </c>
       <c r="V23" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179208</v>
       </c>
       <c r="W23" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X23" t="n">
-        <v>338.1208983262551</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y23" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038395</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297232</v>
       </c>
       <c r="C25" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464138</v>
       </c>
       <c r="D25" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659983</v>
       </c>
       <c r="E25" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943551</v>
       </c>
       <c r="F25" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707172</v>
       </c>
       <c r="G25" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510281</v>
       </c>
       <c r="H25" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442996</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139452981</v>
+        <v>54.52629139452999</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221567</v>
       </c>
       <c r="S25" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424832</v>
       </c>
       <c r="T25" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401419</v>
       </c>
       <c r="U25" t="n">
-        <v>254.5831063612652</v>
+        <v>254.583106361265</v>
       </c>
       <c r="V25" t="n">
-        <v>220.5274409716141</v>
+        <v>220.5274409716139</v>
       </c>
       <c r="W25" t="n">
-        <v>254.9127959843771</v>
+        <v>254.9127959843769</v>
       </c>
       <c r="X25" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368231</v>
       </c>
       <c r="Y25" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998807</v>
       </c>
     </row>
     <row r="26">
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295176</v>
       </c>
       <c r="T26" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U26" t="n">
         <v>219.3243840645688</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C28" t="n">
         <v>135.6366187464139</v>
       </c>
       <c r="D28" t="n">
-        <v>117.0052706659983</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E28" t="n">
         <v>114.8237602943552</v>
@@ -2731,7 +2731,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453012</v>
+        <v>54.5262913945301</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221576</v>
       </c>
       <c r="S28" t="n">
         <v>152.2386502424833</v>
@@ -2767,13 +2767,13 @@
         <v>186.487270040142</v>
       </c>
       <c r="U28" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V28" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W28" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X28" t="n">
         <v>194.0994530368232</v>
@@ -2792,7 +2792,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C29" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D29" t="n">
         <v>323.072839268469</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T29" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U29" t="n">
         <v>219.3243840645688</v>
       </c>
       <c r="V29" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W29" t="n">
         <v>317.6307663651991</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C31" t="n">
         <v>135.6366187464139</v>
@@ -2965,10 +2965,10 @@
         <v>134.0758985510282</v>
       </c>
       <c r="H31" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053443008</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453009</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221592</v>
+        <v>42.04747230221575</v>
       </c>
       <c r="S31" t="n">
         <v>152.2386502424833</v>
@@ -3004,13 +3004,13 @@
         <v>186.487270040142</v>
       </c>
       <c r="U31" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V31" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W31" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X31" t="n">
         <v>194.0994530368232</v>
@@ -3029,7 +3029,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C32" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D32" t="n">
         <v>323.072839268469</v>
@@ -3038,10 +3038,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F32" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G32" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H32" t="n">
         <v>255.2416659947559</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295172</v>
       </c>
       <c r="T32" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U32" t="n">
         <v>219.3243840645688</v>
       </c>
       <c r="V32" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W32" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X32" t="n">
-        <v>338.1208983262551</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y32" t="n">
         <v>354.6277363038396</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C34" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464138</v>
       </c>
       <c r="D34" t="n">
-        <v>117.0052706659984</v>
+        <v>117.005270665999</v>
       </c>
       <c r="E34" t="n">
         <v>114.8237602943552</v>
       </c>
       <c r="F34" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707172</v>
       </c>
       <c r="G34" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510281</v>
       </c>
       <c r="H34" t="n">
-        <v>110.1245053442999</v>
+        <v>110.1245053442996</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453006</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221572</v>
       </c>
       <c r="S34" t="n">
         <v>152.2386502424833</v>
@@ -3241,16 +3241,16 @@
         <v>186.487270040142</v>
       </c>
       <c r="U34" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V34" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W34" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X34" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368231</v>
       </c>
       <c r="Y34" t="n">
         <v>186.9744509998808</v>
@@ -3272,7 +3272,7 @@
         <v>323.072839268469</v>
       </c>
       <c r="E35" t="n">
-        <v>350.3201677200458</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F35" t="n">
         <v>375.2658433894975</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T35" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U35" t="n">
         <v>219.3243840645688</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C37" t="n">
         <v>135.6366187464139</v>
@@ -3442,7 +3442,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I37" t="n">
-        <v>54.5262913945301</v>
+        <v>54.52629139453023</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221576</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S37" t="n">
         <v>152.2386502424833</v>
@@ -3478,13 +3478,13 @@
         <v>186.487270040142</v>
       </c>
       <c r="U37" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V37" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W37" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X37" t="n">
         <v>194.0994530368232</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295176</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T38" t="n">
         <v>168.9926026545723</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T41" t="n">
         <v>168.9926026545724</v>
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C44" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D44" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E44" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F44" t="n">
         <v>375.2658433894975</v>
@@ -3992,7 +3992,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H44" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295184</v>
       </c>
       <c r="T44" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U44" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V44" t="n">
         <v>296.142056117921</v>
@@ -4043,7 +4043,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y44" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="45">
@@ -4138,22 +4138,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D46" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E46" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F46" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G46" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H46" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139452959</v>
+        <v>54.52629139453018</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221468</v>
       </c>
       <c r="S46" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T46" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U46" t="n">
         <v>254.5831063612652</v>
@@ -4198,10 +4198,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X46" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y46" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>55.9658215059499</v>
+        <v>41.83303829737669</v>
       </c>
       <c r="C2" t="n">
-        <v>55.9658215059499</v>
+        <v>41.83303829737669</v>
       </c>
       <c r="D2" t="n">
-        <v>55.9658215059499</v>
+        <v>41.83303829737669</v>
       </c>
       <c r="E2" t="n">
-        <v>55.9658215059499</v>
+        <v>41.83303829737669</v>
       </c>
       <c r="F2" t="n">
-        <v>41.83303829737669</v>
+        <v>27.70025508880348</v>
       </c>
       <c r="G2" t="n">
-        <v>27.70025508880348</v>
+        <v>13.56747188023027</v>
       </c>
       <c r="H2" t="n">
-        <v>15.2520996386922</v>
+        <v>1.119316430118998</v>
       </c>
       <c r="I2" t="n">
         <v>1.119316430118998</v>
@@ -4337,16 +4337,16 @@
         <v>28.82239807556419</v>
       </c>
       <c r="M2" t="n">
-        <v>42.67393889828679</v>
+        <v>28.82239807556419</v>
       </c>
       <c r="N2" t="n">
-        <v>55.9658215059499</v>
+        <v>33.33906181713064</v>
       </c>
       <c r="O2" t="n">
-        <v>55.9658215059499</v>
+        <v>42.1142806832273</v>
       </c>
       <c r="P2" t="n">
-        <v>55.9658215059499</v>
+        <v>42.1142806832273</v>
       </c>
       <c r="Q2" t="n">
         <v>55.9658215059499</v>
@@ -4355,25 +4355,25 @@
         <v>55.9658215059499</v>
       </c>
       <c r="S2" t="n">
-        <v>55.9658215059499</v>
+        <v>41.83303829737669</v>
       </c>
       <c r="T2" t="n">
-        <v>55.9658215059499</v>
+        <v>41.83303829737669</v>
       </c>
       <c r="U2" t="n">
-        <v>55.9658215059499</v>
+        <v>41.83303829737669</v>
       </c>
       <c r="V2" t="n">
-        <v>55.9658215059499</v>
+        <v>41.83303829737669</v>
       </c>
       <c r="W2" t="n">
-        <v>55.9658215059499</v>
+        <v>41.83303829737669</v>
       </c>
       <c r="X2" t="n">
-        <v>55.9658215059499</v>
+        <v>41.83303829737669</v>
       </c>
       <c r="Y2" t="n">
-        <v>55.9658215059499</v>
+        <v>41.83303829737669</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.56747188023027</v>
+        <v>43.51766605583862</v>
       </c>
       <c r="C3" t="n">
-        <v>13.56747188023027</v>
+        <v>43.51766605583862</v>
       </c>
       <c r="D3" t="n">
-        <v>13.56747188023027</v>
+        <v>43.51766605583862</v>
       </c>
       <c r="E3" t="n">
-        <v>1.119316430118998</v>
+        <v>29.38488284726541</v>
       </c>
       <c r="F3" t="n">
-        <v>1.119316430118998</v>
+        <v>15.2520996386922</v>
       </c>
       <c r="G3" t="n">
-        <v>1.119316430118998</v>
+        <v>15.2520996386922</v>
       </c>
       <c r="H3" t="n">
-        <v>1.119316430118998</v>
+        <v>15.2520996386922</v>
       </c>
       <c r="I3" t="n">
         <v>1.119316430118998</v>
@@ -4413,13 +4413,13 @@
         <v>1.119316430118998</v>
       </c>
       <c r="L3" t="n">
-        <v>14.76308113378829</v>
+        <v>14.4111990377821</v>
       </c>
       <c r="M3" t="n">
-        <v>28.61462195651089</v>
+        <v>28.2627398605047</v>
       </c>
       <c r="N3" t="n">
-        <v>42.46616277923349</v>
+        <v>42.1142806832273</v>
       </c>
       <c r="O3" t="n">
         <v>55.9658215059499</v>
@@ -4431,28 +4431,28 @@
         <v>55.9658215059499</v>
       </c>
       <c r="R3" t="n">
-        <v>41.83303829737669</v>
+        <v>55.9658215059499</v>
       </c>
       <c r="S3" t="n">
-        <v>41.83303829737669</v>
+        <v>55.9658215059499</v>
       </c>
       <c r="T3" t="n">
-        <v>27.70025508880348</v>
+        <v>55.9658215059499</v>
       </c>
       <c r="U3" t="n">
-        <v>27.70025508880348</v>
+        <v>55.9658215059499</v>
       </c>
       <c r="V3" t="n">
-        <v>27.70025508880348</v>
+        <v>55.9658215059499</v>
       </c>
       <c r="W3" t="n">
-        <v>27.70025508880348</v>
+        <v>55.9658215059499</v>
       </c>
       <c r="X3" t="n">
-        <v>27.70025508880348</v>
+        <v>55.9658215059499</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.56747188023027</v>
+        <v>55.9658215059499</v>
       </c>
     </row>
     <row r="4">
@@ -4462,52 +4462,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.83303829737669</v>
+        <v>15.2520996386922</v>
       </c>
       <c r="C4" t="n">
-        <v>41.83303829737669</v>
+        <v>15.2520996386922</v>
       </c>
       <c r="D4" t="n">
-        <v>41.83303829737669</v>
+        <v>15.2520996386922</v>
       </c>
       <c r="E4" t="n">
-        <v>29.38488284726541</v>
+        <v>15.2520996386922</v>
       </c>
       <c r="F4" t="n">
-        <v>29.38488284726541</v>
+        <v>15.2520996386922</v>
       </c>
       <c r="G4" t="n">
-        <v>29.38488284726541</v>
+        <v>15.2520996386922</v>
       </c>
       <c r="H4" t="n">
         <v>15.2520996386922</v>
       </c>
       <c r="I4" t="n">
-        <v>15.2520996386922</v>
+        <v>1.119316430118998</v>
       </c>
       <c r="J4" t="n">
         <v>1.119316430118998</v>
       </c>
       <c r="K4" t="n">
+        <v>1.119316430118998</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.119316430118998</v>
+      </c>
+      <c r="M4" t="n">
         <v>14.9708572528416</v>
       </c>
-      <c r="L4" t="n">
-        <v>14.9708572528416</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>28.82239807556419</v>
       </c>
-      <c r="N4" t="n">
-        <v>42.1142806832273</v>
-      </c>
       <c r="O4" t="n">
-        <v>55.9658215059499</v>
+        <v>42.67393889828679</v>
       </c>
       <c r="P4" t="n">
         <v>55.9658215059499</v>
       </c>
       <c r="Q4" t="n">
-        <v>41.83303829737669</v>
+        <v>55.9658215059499</v>
       </c>
       <c r="R4" t="n">
         <v>41.83303829737669</v>
@@ -4516,22 +4516,22 @@
         <v>41.83303829737669</v>
       </c>
       <c r="T4" t="n">
-        <v>41.83303829737669</v>
+        <v>29.38488284726541</v>
       </c>
       <c r="U4" t="n">
-        <v>41.83303829737669</v>
+        <v>29.38488284726541</v>
       </c>
       <c r="V4" t="n">
-        <v>41.83303829737669</v>
+        <v>29.38488284726541</v>
       </c>
       <c r="W4" t="n">
-        <v>41.83303829737669</v>
+        <v>29.38488284726541</v>
       </c>
       <c r="X4" t="n">
-        <v>41.83303829737669</v>
+        <v>15.2520996386922</v>
       </c>
       <c r="Y4" t="n">
-        <v>41.83303829737669</v>
+        <v>15.2520996386922</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>229.8003485795209</v>
+        <v>134.5719565250467</v>
       </c>
       <c r="C5" t="n">
-        <v>229.8003485795209</v>
+        <v>134.5719565250467</v>
       </c>
       <c r="D5" t="n">
-        <v>229.8003485795209</v>
+        <v>134.5719565250467</v>
       </c>
       <c r="E5" t="n">
-        <v>229.8003485795209</v>
+        <v>76.54156546961167</v>
       </c>
       <c r="F5" t="n">
-        <v>178.6871801378941</v>
+        <v>18.51117441417666</v>
       </c>
       <c r="G5" t="n">
-        <v>120.6567890824596</v>
+        <v>4.596006971590453</v>
       </c>
       <c r="H5" t="n">
-        <v>62.62639802702499</v>
+        <v>4.596006971590453</v>
       </c>
       <c r="I5" t="n">
-        <v>4.596006971590418</v>
+        <v>4.596006971590453</v>
       </c>
       <c r="J5" t="n">
-        <v>4.596006971590418</v>
+        <v>61.47159324502231</v>
       </c>
       <c r="K5" t="n">
-        <v>4.596006971590418</v>
+        <v>61.47159324502231</v>
       </c>
       <c r="L5" t="n">
-        <v>16.59991238395749</v>
+        <v>118.3471795184542</v>
       </c>
       <c r="M5" t="n">
-        <v>73.47549865738891</v>
+        <v>155.7025987773927</v>
       </c>
       <c r="N5" t="n">
-        <v>116.049176032658</v>
+        <v>202.934493528863</v>
       </c>
       <c r="O5" t="n">
-        <v>172.9247623060895</v>
+        <v>229.8003485795226</v>
       </c>
       <c r="P5" t="n">
-        <v>229.8003485795209</v>
+        <v>229.8003485795226</v>
       </c>
       <c r="Q5" t="n">
-        <v>229.8003485795209</v>
+        <v>229.8003485795226</v>
       </c>
       <c r="R5" t="n">
-        <v>229.8003485795209</v>
+        <v>175.2890526171495</v>
       </c>
       <c r="S5" t="n">
-        <v>229.8003485795209</v>
+        <v>175.2890526171495</v>
       </c>
       <c r="T5" t="n">
-        <v>229.8003485795209</v>
+        <v>175.2890526171495</v>
       </c>
       <c r="U5" t="n">
-        <v>229.8003485795209</v>
+        <v>175.2890526171495</v>
       </c>
       <c r="V5" t="n">
-        <v>229.8003485795209</v>
+        <v>134.5719565250467</v>
       </c>
       <c r="W5" t="n">
-        <v>229.8003485795209</v>
+        <v>134.5719565250467</v>
       </c>
       <c r="X5" t="n">
-        <v>229.8003485795209</v>
+        <v>134.5719565250467</v>
       </c>
       <c r="Y5" t="n">
-        <v>229.8003485795209</v>
+        <v>134.5719565250467</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.596006971590418</v>
+        <v>121.8302062476498</v>
       </c>
       <c r="C6" t="n">
-        <v>4.596006971590418</v>
+        <v>63.79981519221479</v>
       </c>
       <c r="D6" t="n">
-        <v>4.596006971590418</v>
+        <v>63.79981519221479</v>
       </c>
       <c r="E6" t="n">
-        <v>4.596006971590418</v>
+        <v>62.62639802702547</v>
       </c>
       <c r="F6" t="n">
-        <v>4.596006971590418</v>
+        <v>62.62639802702547</v>
       </c>
       <c r="G6" t="n">
-        <v>4.596006971590418</v>
+        <v>62.62639802702547</v>
       </c>
       <c r="H6" t="n">
-        <v>4.596006971590418</v>
+        <v>62.62639802702547</v>
       </c>
       <c r="I6" t="n">
-        <v>4.596006971590418</v>
+        <v>4.596006971590453</v>
       </c>
       <c r="J6" t="n">
-        <v>4.596006971590418</v>
+        <v>4.596006971590453</v>
       </c>
       <c r="K6" t="n">
-        <v>4.596006971590418</v>
+        <v>4.596006971590453</v>
       </c>
       <c r="L6" t="n">
-        <v>43.0178165100985</v>
+        <v>43.01781651009883</v>
       </c>
       <c r="M6" t="n">
-        <v>99.89340278352995</v>
+        <v>99.89340278353069</v>
       </c>
       <c r="N6" t="n">
-        <v>156.7689890569614</v>
+        <v>156.7689890569626</v>
       </c>
       <c r="O6" t="n">
-        <v>208.0088827473986</v>
+        <v>208.0088827474002</v>
       </c>
       <c r="P6" t="n">
-        <v>229.8003485795209</v>
+        <v>229.8003485795226</v>
       </c>
       <c r="Q6" t="n">
-        <v>229.8003485795209</v>
+        <v>229.8003485795226</v>
       </c>
       <c r="R6" t="n">
-        <v>229.8003485795209</v>
+        <v>179.8605973030848</v>
       </c>
       <c r="S6" t="n">
-        <v>229.8003485795209</v>
+        <v>179.8605973030848</v>
       </c>
       <c r="T6" t="n">
-        <v>178.6871801378941</v>
+        <v>179.8605973030848</v>
       </c>
       <c r="U6" t="n">
-        <v>120.6567890824596</v>
+        <v>179.8605973030848</v>
       </c>
       <c r="V6" t="n">
-        <v>62.62639802702499</v>
+        <v>121.8302062476498</v>
       </c>
       <c r="W6" t="n">
-        <v>62.62639802702499</v>
+        <v>121.8302062476498</v>
       </c>
       <c r="X6" t="n">
-        <v>62.62639802702499</v>
+        <v>121.8302062476498</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.596006971590418</v>
+        <v>121.8302062476498</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>62.62639802702499</v>
+        <v>108.021709739962</v>
       </c>
       <c r="C7" t="n">
-        <v>4.596006971590418</v>
+        <v>108.021709739962</v>
       </c>
       <c r="D7" t="n">
-        <v>4.596006971590418</v>
+        <v>108.021709739962</v>
       </c>
       <c r="E7" t="n">
-        <v>4.596006971590418</v>
+        <v>108.021709739962</v>
       </c>
       <c r="F7" t="n">
-        <v>4.596006971590418</v>
+        <v>108.021709739962</v>
       </c>
       <c r="G7" t="n">
-        <v>4.596006971590418</v>
+        <v>49.99131868452696</v>
       </c>
       <c r="H7" t="n">
-        <v>4.596006971590418</v>
+        <v>49.99131868452696</v>
       </c>
       <c r="I7" t="n">
-        <v>4.596006971590418</v>
+        <v>49.99131868452696</v>
       </c>
       <c r="J7" t="n">
-        <v>4.596006971590418</v>
+        <v>4.596006971590453</v>
       </c>
       <c r="K7" t="n">
-        <v>4.596006971590418</v>
+        <v>4.596006971590453</v>
       </c>
       <c r="L7" t="n">
-        <v>61.47159324502184</v>
+        <v>4.596006971590453</v>
       </c>
       <c r="M7" t="n">
-        <v>116.049176032658</v>
+        <v>59.17358975922709</v>
       </c>
       <c r="N7" t="n">
-        <v>172.9247623060895</v>
+        <v>116.0491760326589</v>
       </c>
       <c r="O7" t="n">
-        <v>229.8003485795209</v>
+        <v>172.9247623060908</v>
       </c>
       <c r="P7" t="n">
-        <v>229.8003485795209</v>
+        <v>229.8003485795226</v>
       </c>
       <c r="Q7" t="n">
-        <v>200.6928071319041</v>
+        <v>200.692807131906</v>
       </c>
       <c r="R7" t="n">
-        <v>200.6928071319041</v>
+        <v>200.692807131906</v>
       </c>
       <c r="S7" t="n">
-        <v>200.6928071319041</v>
+        <v>142.6624160764709</v>
       </c>
       <c r="T7" t="n">
-        <v>142.6624160764696</v>
+        <v>108.021709739962</v>
       </c>
       <c r="U7" t="n">
-        <v>120.6567890824596</v>
+        <v>108.021709739962</v>
       </c>
       <c r="V7" t="n">
-        <v>62.62639802702499</v>
+        <v>108.021709739962</v>
       </c>
       <c r="W7" t="n">
-        <v>62.62639802702499</v>
+        <v>108.021709739962</v>
       </c>
       <c r="X7" t="n">
-        <v>62.62639802702499</v>
+        <v>108.021709739962</v>
       </c>
       <c r="Y7" t="n">
-        <v>62.62639802702499</v>
+        <v>108.021709739962</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>607.1384398313492</v>
+        <v>329.9810992711896</v>
       </c>
       <c r="C8" t="n">
-        <v>607.1384398313492</v>
+        <v>329.9810992711896</v>
       </c>
       <c r="D8" t="n">
-        <v>607.1384398313492</v>
+        <v>329.9810992711896</v>
       </c>
       <c r="E8" t="n">
-        <v>607.1384398313492</v>
+        <v>329.9810992711896</v>
       </c>
       <c r="F8" t="n">
-        <v>448.4326398740629</v>
+        <v>171.2752993139034</v>
       </c>
       <c r="G8" t="n">
-        <v>289.7268399167766</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="H8" t="n">
-        <v>145.357433372834</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="I8" t="n">
         <v>12.56949935661707</v>
       </c>
       <c r="J8" t="n">
-        <v>12.56949935661707</v>
+        <v>61.34835368036779</v>
       </c>
       <c r="K8" t="n">
-        <v>52.78571257950537</v>
+        <v>101.5645669032561</v>
       </c>
       <c r="L8" t="n">
         <v>188.3580974250196</v>
@@ -4829,25 +4829,25 @@
         <v>607.1384398313492</v>
       </c>
       <c r="S8" t="n">
-        <v>607.1384398313492</v>
+        <v>448.4326398740629</v>
       </c>
       <c r="T8" t="n">
-        <v>607.1384398313492</v>
+        <v>448.4326398740629</v>
       </c>
       <c r="U8" t="n">
-        <v>607.1384398313492</v>
+        <v>448.4326398740629</v>
       </c>
       <c r="V8" t="n">
-        <v>607.1384398313492</v>
+        <v>448.4326398740629</v>
       </c>
       <c r="W8" t="n">
-        <v>607.1384398313492</v>
+        <v>448.4326398740629</v>
       </c>
       <c r="X8" t="n">
-        <v>607.1384398313492</v>
+        <v>448.4326398740629</v>
       </c>
       <c r="Y8" t="n">
-        <v>607.1384398313492</v>
+        <v>329.9810992711896</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>437.3736204804219</v>
+        <v>420.4810338173566</v>
       </c>
       <c r="C9" t="n">
-        <v>296.7271921630318</v>
+        <v>420.4810338173566</v>
       </c>
       <c r="D9" t="n">
-        <v>296.7271921630318</v>
+        <v>420.4810338173566</v>
       </c>
       <c r="E9" t="n">
-        <v>296.7271921630318</v>
+        <v>261.7752338600703</v>
       </c>
       <c r="F9" t="n">
-        <v>150.1926341899167</v>
+        <v>115.2406758869553</v>
       </c>
       <c r="G9" t="n">
-        <v>12.56949935661707</v>
+        <v>115.2406758869553</v>
       </c>
       <c r="H9" t="n">
         <v>12.56949935661707</v>
@@ -4890,10 +4890,10 @@
         <v>149.9695119216956</v>
       </c>
       <c r="M9" t="n">
-        <v>284.3351449627281</v>
+        <v>284.3351449627284</v>
       </c>
       <c r="N9" t="n">
-        <v>436.6656814086847</v>
+        <v>436.6656814086848</v>
       </c>
       <c r="O9" t="n">
         <v>553.7985668721251</v>
@@ -4905,28 +4905,28 @@
         <v>628.4749678308536</v>
       </c>
       <c r="R9" t="n">
-        <v>596.0794204377082</v>
+        <v>628.4749678308536</v>
       </c>
       <c r="S9" t="n">
-        <v>596.0794204377082</v>
+        <v>475.6324900516947</v>
       </c>
       <c r="T9" t="n">
-        <v>596.0794204377082</v>
+        <v>475.6324900516947</v>
       </c>
       <c r="U9" t="n">
-        <v>437.3736204804219</v>
+        <v>475.6324900516947</v>
       </c>
       <c r="V9" t="n">
-        <v>437.3736204804219</v>
+        <v>420.4810338173566</v>
       </c>
       <c r="W9" t="n">
-        <v>437.3736204804219</v>
+        <v>420.4810338173566</v>
       </c>
       <c r="X9" t="n">
-        <v>437.3736204804219</v>
+        <v>420.4810338173566</v>
       </c>
       <c r="Y9" t="n">
-        <v>437.3736204804219</v>
+        <v>420.4810338173566</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>199.9219057316992</v>
+        <v>477.0012216937683</v>
       </c>
       <c r="C10" t="n">
-        <v>41.21610577441295</v>
+        <v>318.295421736482</v>
       </c>
       <c r="D10" t="n">
-        <v>41.21610577441295</v>
+        <v>168.1787823241463</v>
       </c>
       <c r="E10" t="n">
-        <v>41.21610577441295</v>
+        <v>168.1787823241463</v>
       </c>
       <c r="F10" t="n">
-        <v>41.21610577441295</v>
+        <v>168.1787823241463</v>
       </c>
       <c r="G10" t="n">
-        <v>41.21610577441295</v>
+        <v>168.1787823241463</v>
       </c>
       <c r="H10" t="n">
-        <v>41.21610577441295</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="I10" t="n">
-        <v>41.21610577441295</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="J10" t="n">
         <v>12.56949935661707</v>
@@ -4969,13 +4969,13 @@
         <v>168.1170538947533</v>
       </c>
       <c r="M10" t="n">
-        <v>212.5529336051927</v>
+        <v>323.6646084328896</v>
       </c>
       <c r="N10" t="n">
-        <v>368.100488143329</v>
+        <v>475.4872381248965</v>
       </c>
       <c r="O10" t="n">
-        <v>521.0882178492861</v>
+        <v>628.4749678308536</v>
       </c>
       <c r="P10" t="n">
         <v>628.4749678308536</v>
@@ -4984,28 +4984,28 @@
         <v>619.2044232295196</v>
       </c>
       <c r="R10" t="n">
-        <v>481.8756963214811</v>
+        <v>619.2044232295196</v>
       </c>
       <c r="S10" t="n">
-        <v>481.8756963214811</v>
+        <v>619.2044232295196</v>
       </c>
       <c r="T10" t="n">
-        <v>358.6277056889855</v>
+        <v>619.2044232295196</v>
       </c>
       <c r="U10" t="n">
-        <v>199.9219057316992</v>
+        <v>619.2044232295196</v>
       </c>
       <c r="V10" t="n">
-        <v>199.9219057316992</v>
+        <v>619.2044232295196</v>
       </c>
       <c r="W10" t="n">
-        <v>199.9219057316992</v>
+        <v>619.2044232295196</v>
       </c>
       <c r="X10" t="n">
-        <v>199.9219057316992</v>
+        <v>619.2044232295196</v>
       </c>
       <c r="Y10" t="n">
-        <v>199.9219057316992</v>
+        <v>619.2044232295196</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1611.504630229389</v>
+        <v>2144.883770458459</v>
       </c>
       <c r="C11" t="n">
-        <v>1242.542113288977</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D11" t="n">
-        <v>884.2764146822269</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E11" t="n">
-        <v>884.2764146822269</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F11" t="n">
-        <v>473.2905098926194</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U11" t="n">
-        <v>3072.075344883007</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V11" t="n">
-        <v>2741.012457539437</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W11" t="n">
-        <v>2388.243802269322</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X11" t="n">
-        <v>2388.243802269322</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="Y11" t="n">
-        <v>1998.104470293511</v>
+        <v>2531.483610522581</v>
       </c>
     </row>
     <row r="12">
@@ -5109,22 +5109,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1091.613680441807</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139004</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015647</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191715</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279953</v>
       </c>
       <c r="L13" t="n">
         <v>632.1817302764915</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760406</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5218,31 +5218,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U13" t="n">
-        <v>1856.507917828185</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V13" t="n">
-        <v>1601.823429622298</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W13" t="n">
-        <v>1312.406259585337</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X13" t="n">
-        <v>1312.406259585337</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y13" t="n">
-        <v>1091.613680441807</v>
+        <v>693.0802617550623</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1938.492916274006</v>
+        <v>2336.647924733508</v>
       </c>
       <c r="C14" t="n">
-        <v>1938.492916274006</v>
+        <v>1967.685407793096</v>
       </c>
       <c r="D14" t="n">
-        <v>1580.227217667256</v>
+        <v>1609.419709186346</v>
       </c>
       <c r="E14" t="n">
-        <v>1194.438965069011</v>
+        <v>1223.631456588102</v>
       </c>
       <c r="F14" t="n">
-        <v>783.4530602794039</v>
+        <v>812.6455517984941</v>
       </c>
       <c r="G14" t="n">
-        <v>368.7127392273495</v>
+        <v>397.9052307464396</v>
       </c>
       <c r="H14" t="n">
-        <v>74.53055601169297</v>
+        <v>103.7230475307831</v>
       </c>
       <c r="I14" t="n">
-        <v>74.53055601169297</v>
+        <v>74.53055601169294</v>
       </c>
       <c r="J14" t="n">
         <v>291.0377674773517</v>
       </c>
       <c r="K14" t="n">
-        <v>666.2644720055987</v>
+        <v>666.2644720055982</v>
       </c>
       <c r="L14" t="n">
-        <v>1168.668140645699</v>
+        <v>1168.668140645698</v>
       </c>
       <c r="M14" t="n">
-        <v>1759.358462275286</v>
+        <v>1759.358462275285</v>
       </c>
       <c r="N14" t="n">
-        <v>2364.22057923539</v>
+        <v>2364.220579235389</v>
       </c>
       <c r="O14" t="n">
         <v>2922.039463163073</v>
       </c>
       <c r="P14" t="n">
-        <v>3363.623974140403</v>
+        <v>3363.623974140402</v>
       </c>
       <c r="Q14" t="n">
-        <v>3647.062805049513</v>
+        <v>3647.062805049511</v>
       </c>
       <c r="R14" t="n">
-        <v>3726.527800584649</v>
+        <v>3726.527800584647</v>
       </c>
       <c r="S14" t="n">
-        <v>3623.805524045194</v>
+        <v>3623.805524045192</v>
       </c>
       <c r="T14" t="n">
-        <v>3623.805524045194</v>
+        <v>3419.281671577573</v>
       </c>
       <c r="U14" t="n">
-        <v>3370.301617647266</v>
+        <v>3165.777765179645</v>
       </c>
       <c r="V14" t="n">
-        <v>3039.238730303695</v>
+        <v>2834.714877836075</v>
       </c>
       <c r="W14" t="n">
-        <v>2702.098006510898</v>
+        <v>2834.714877836075</v>
       </c>
       <c r="X14" t="n">
-        <v>2328.632248249818</v>
+        <v>2834.714877836075</v>
       </c>
       <c r="Y14" t="n">
-        <v>1938.492916274006</v>
+        <v>2723.24776479763</v>
       </c>
     </row>
     <row r="15">
@@ -5352,19 +5352,19 @@
         <v>87.41950470718612</v>
       </c>
       <c r="I15" t="n">
-        <v>74.53055601169297</v>
+        <v>74.53055601169294</v>
       </c>
       <c r="J15" t="n">
-        <v>170.1112445399392</v>
+        <v>74.53055601169294</v>
       </c>
       <c r="K15" t="n">
-        <v>170.1112445399392</v>
+        <v>170.1112445399404</v>
       </c>
       <c r="L15" t="n">
-        <v>574.6261033188193</v>
+        <v>574.6261033188205</v>
       </c>
       <c r="M15" t="n">
-        <v>1066.032731952775</v>
+        <v>1066.032731952776</v>
       </c>
       <c r="N15" t="n">
         <v>1584.85407673636</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>516.4297471164964</v>
+        <v>317.4925871253862</v>
       </c>
       <c r="C16" t="n">
-        <v>516.4297471164964</v>
+        <v>317.4925871253862</v>
       </c>
       <c r="D16" t="n">
-        <v>366.3131077041607</v>
+        <v>167.3759477130506</v>
       </c>
       <c r="E16" t="n">
-        <v>366.3131077041607</v>
+        <v>167.3759477130506</v>
       </c>
       <c r="F16" t="n">
-        <v>219.4231602062504</v>
+        <v>167.3759477130506</v>
       </c>
       <c r="G16" t="n">
-        <v>219.4231602062504</v>
+        <v>167.3759477130506</v>
       </c>
       <c r="H16" t="n">
-        <v>74.53055601169297</v>
+        <v>167.3759477130506</v>
       </c>
       <c r="I16" t="n">
-        <v>74.53055601169297</v>
+        <v>74.53055601169294</v>
       </c>
       <c r="J16" t="n">
-        <v>129.9765865525471</v>
+        <v>129.976586552547</v>
       </c>
       <c r="K16" t="n">
-        <v>350.9282837923171</v>
+        <v>350.9282837923169</v>
       </c>
       <c r="L16" t="n">
-        <v>689.1968198553104</v>
+        <v>689.1968198553101</v>
       </c>
       <c r="M16" t="n">
         <v>1056.242685479732</v>
       </c>
       <c r="N16" t="n">
-        <v>1419.995637229307</v>
+        <v>1419.995637229306</v>
       </c>
       <c r="O16" t="n">
-        <v>1739.964067776858</v>
+        <v>1739.964067776857</v>
       </c>
       <c r="P16" t="n">
-        <v>1990.231654135873</v>
+        <v>1990.231654135872</v>
       </c>
       <c r="Q16" t="n">
-        <v>2080.068878389594</v>
+        <v>2080.068878389593</v>
       </c>
       <c r="R16" t="n">
-        <v>1996.937179304785</v>
+        <v>1996.937179304784</v>
       </c>
       <c r="S16" t="n">
-        <v>1807.847639528748</v>
+        <v>1996.937179304784</v>
       </c>
       <c r="T16" t="n">
-        <v>1586.717582192512</v>
+        <v>1781.119580840834</v>
       </c>
       <c r="U16" t="n">
-        <v>1586.717582192512</v>
+        <v>1492.024840240021</v>
       </c>
       <c r="V16" t="n">
-        <v>1332.033093986625</v>
+        <v>1237.340352034134</v>
       </c>
       <c r="W16" t="n">
-        <v>1042.615923949665</v>
+        <v>947.9231819971731</v>
       </c>
       <c r="X16" t="n">
-        <v>918.8707910902663</v>
+        <v>719.9336310991561</v>
       </c>
       <c r="Y16" t="n">
-        <v>698.0782119467361</v>
+        <v>499.1410519556259</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C17" t="n">
         <v>1784.429621497863</v>
       </c>
       <c r="D17" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E17" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796666</v>
       </c>
       <c r="G17" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H17" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="I17" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J17" t="n">
-        <v>337.4933016076839</v>
+        <v>337.493301607683</v>
       </c>
       <c r="K17" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951441</v>
       </c>
       <c r="L17" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M17" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N17" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O17" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P17" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q17" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R17" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S17" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T17" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U17" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.85162740016</v>
       </c>
       <c r="V17" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.718237382058</v>
       </c>
       <c r="W17" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437412</v>
       </c>
       <c r="X17" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501801</v>
       </c>
       <c r="Y17" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851458</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5586,31 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H18" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I18" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J18" t="n">
         <v>216.5575109835859</v>
       </c>
       <c r="K18" t="n">
-        <v>216.5575109835859</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L18" t="n">
-        <v>670.3561405779133</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M18" t="n">
-        <v>875.4343898857002</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N18" t="n">
-        <v>1453.289737812102</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O18" t="n">
-        <v>1959.694692760353</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P18" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q18" t="n">
         <v>2555.644190323788</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502111</v>
       </c>
       <c r="C19" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477729</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609059</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039816</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315385</v>
+        <v>386.72454563154</v>
       </c>
       <c r="G19" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749441</v>
       </c>
       <c r="H19" t="n">
-        <v>140.0574709897931</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I19" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1742787042788</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K19" t="n">
-        <v>459.5287020443615</v>
+        <v>459.5287020443613</v>
       </c>
       <c r="L19" t="n">
-        <v>857.382767690279</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M19" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N19" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O19" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P19" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q19" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R19" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S19" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T19" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U19" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V19" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357085</v>
       </c>
       <c r="W19" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645593</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y19" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C20" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D20" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E20" t="n">
         <v>1104.234664943806</v>
       </c>
       <c r="F20" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G20" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162836</v>
       </c>
       <c r="H20" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="I20" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J20" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K20" t="n">
-        <v>766.6831886951445</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L20" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050961</v>
       </c>
       <c r="M20" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746736</v>
       </c>
       <c r="N20" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O20" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233285</v>
       </c>
       <c r="P20" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612701</v>
       </c>
       <c r="Q20" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767225</v>
       </c>
       <c r="R20" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S20" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924544</v>
       </c>
       <c r="T20" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U20" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.85162740016</v>
       </c>
       <c r="V20" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382058</v>
       </c>
       <c r="W20" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437413</v>
       </c>
       <c r="X20" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y20" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851458</v>
       </c>
     </row>
     <row r="21">
@@ -5823,10 +5823,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H21" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I21" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J21" t="n">
         <v>216.5575109835859</v>
@@ -5835,19 +5835,19 @@
         <v>519.5985603334502</v>
       </c>
       <c r="L21" t="n">
-        <v>519.5985603334502</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M21" t="n">
-        <v>1068.517024943739</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N21" t="n">
-        <v>1646.372372870142</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O21" t="n">
-        <v>2152.777327818392</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P21" t="n">
-        <v>2539.878883370548</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q21" t="n">
         <v>2555.644190323788</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502098</v>
+        <v>872.8624197502126</v>
       </c>
       <c r="C22" t="n">
-        <v>735.8557341477715</v>
+        <v>735.8557341477745</v>
       </c>
       <c r="D22" t="n">
-        <v>617.6685920609044</v>
+        <v>617.6685920609076</v>
       </c>
       <c r="E22" t="n">
-        <v>501.68499580398</v>
+        <v>501.6849958039833</v>
       </c>
       <c r="F22" t="n">
-        <v>386.7245456315383</v>
+        <v>386.7245456315379</v>
       </c>
       <c r="G22" t="n">
-        <v>251.2943450749441</v>
+        <v>251.2943450749439</v>
       </c>
       <c r="H22" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897929</v>
       </c>
       <c r="I22" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J22" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042786</v>
       </c>
       <c r="K22" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443615</v>
       </c>
       <c r="L22" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902793</v>
       </c>
       <c r="M22" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N22" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O22" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313937</v>
       </c>
       <c r="P22" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.45563102869</v>
       </c>
       <c r="Q22" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597207</v>
       </c>
       <c r="R22" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S22" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966198</v>
       </c>
       <c r="T22" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U22" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237504</v>
       </c>
       <c r="V22" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357086</v>
       </c>
       <c r="W22" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645594</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073045</v>
       </c>
       <c r="Y22" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254983</v>
       </c>
     </row>
     <row r="23">
@@ -5969,7 +5969,7 @@
         <v>1784.429621497863</v>
       </c>
       <c r="D23" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E23" t="n">
         <v>1104.234664943806</v>
@@ -5978,19 +5978,19 @@
         <v>725.1782574796671</v>
       </c>
       <c r="G23" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H23" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="I23" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J23" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K23" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L23" t="n">
         <v>1336.032957050963</v>
@@ -6005,28 +6005,28 @@
         <v>3311.067850233286</v>
       </c>
       <c r="P23" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q23" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R23" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S23" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T23" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U23" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.85162740016</v>
       </c>
       <c r="V23" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.718237382058</v>
       </c>
       <c r="W23" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437413</v>
       </c>
       <c r="X23" t="n">
         <v>2834.342818501802</v>
@@ -6060,10 +6060,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H24" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I24" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J24" t="n">
         <v>216.5575109835859</v>
@@ -6075,10 +6075,10 @@
         <v>973.3971899277776</v>
       </c>
       <c r="M24" t="n">
-        <v>1522.315654538067</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N24" t="n">
-        <v>2100.171002464469</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O24" t="n">
         <v>2555.644190323788</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502097</v>
+        <v>872.8624197502093</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477714</v>
+        <v>735.855734147771</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609043</v>
+        <v>617.6685920609041</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039797</v>
       </c>
       <c r="F25" t="n">
         <v>386.7245456315381</v>
       </c>
       <c r="G25" t="n">
-        <v>251.294345074944</v>
+        <v>251.2943450749441</v>
       </c>
       <c r="H25" t="n">
-        <v>140.0574709897928</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I25" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J25" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K25" t="n">
         <v>459.5287020443614</v>
       </c>
       <c r="L25" t="n">
-        <v>857.3827676902788</v>
+        <v>857.382767690279</v>
       </c>
       <c r="M25" t="n">
         <v>1285.552079040894</v>
@@ -6166,31 +6166,31 @@
         <v>2392.455631028689</v>
       </c>
       <c r="Q25" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597203</v>
       </c>
       <c r="R25" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352541</v>
       </c>
       <c r="S25" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966194</v>
       </c>
       <c r="T25" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U25" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.7471862375</v>
       </c>
       <c r="V25" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W25" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X25" t="n">
         <v>1211.444469073042</v>
       </c>
       <c r="Y25" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C26" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D26" t="n">
         <v>1458.093420216582</v>
@@ -6218,25 +6218,25 @@
         <v>342.8002736162838</v>
       </c>
       <c r="H26" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I26" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J26" t="n">
-        <v>337.493301607683</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K26" t="n">
-        <v>766.6831886951441</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L26" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M26" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N26" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O26" t="n">
         <v>3311.067850233287</v>
@@ -6245,31 +6245,31 @@
         <v>3813.656640612703</v>
       </c>
       <c r="Q26" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R26" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S26" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T26" t="n">
         <v>4017.391409283564</v>
       </c>
       <c r="U26" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V26" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W26" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X26" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y26" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="27">
@@ -6297,28 +6297,28 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H27" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I27" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J27" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K27" t="n">
-        <v>84.98040897511622</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L27" t="n">
-        <v>538.7790385694436</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M27" t="n">
-        <v>1084.28233189698</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N27" t="n">
-        <v>1662.137679823382</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O27" t="n">
-        <v>2168.542634771632</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P27" t="n">
         <v>2555.644190323788</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502098</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039802</v>
+        <v>501.68499580398</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315383</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749442</v>
       </c>
       <c r="H28" t="n">
-        <v>140.0574709897931</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I28" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J28" t="n">
         <v>185.1742787042785</v>
@@ -6388,13 +6388,13 @@
         <v>459.5287020443612</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M28" t="n">
         <v>1285.552079040893</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354972</v>
       </c>
       <c r="O28" t="n">
         <v>2087.878830313935</v>
@@ -6403,19 +6403,19 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q28" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R28" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S28" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T28" t="n">
         <v>2144.901839127668</v>
       </c>
       <c r="U28" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V28" t="n">
         <v>1664.992195357083</v>
@@ -6446,67 +6446,67 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E29" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F29" t="n">
-        <v>725.178257479668</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G29" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H29" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I29" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J29" t="n">
-        <v>337.4933016076851</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K29" t="n">
-        <v>766.6831886951463</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L29" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M29" t="n">
-        <v>2001.21371374674</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N29" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O29" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P29" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q29" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R29" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S29" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T29" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U29" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V29" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W29" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X29" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y29" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="30">
@@ -6534,10 +6534,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H30" t="n">
-        <v>89.89576342177182</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I30" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J30" t="n">
         <v>216.5575109835859</v>
@@ -6546,22 +6546,22 @@
         <v>519.5985603334502</v>
       </c>
       <c r="L30" t="n">
-        <v>850.6694118551806</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M30" t="n">
-        <v>850.6694118551806</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N30" t="n">
-        <v>1428.524759781583</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O30" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P30" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q30" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R30" t="n">
         <v>2555.644190323788</v>
@@ -6595,43 +6595,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502099</v>
+        <v>872.862419750211</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477728</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609057</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039812</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315395</v>
       </c>
       <c r="G31" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749454</v>
       </c>
       <c r="H31" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I31" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J31" t="n">
-        <v>185.1742787042789</v>
+        <v>185.1742787042788</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5287020443616</v>
+        <v>459.5287020443615</v>
       </c>
       <c r="L31" t="n">
-        <v>857.382767690279</v>
+        <v>857.3827676902795</v>
       </c>
       <c r="M31" t="n">
         <v>1285.552079040894</v>
       </c>
       <c r="N31" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O31" t="n">
         <v>2087.878830313936</v>
@@ -6640,16 +6640,16 @@
         <v>2392.455631028689</v>
       </c>
       <c r="Q31" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S31" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T31" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U31" t="n">
         <v>1887.747186237502</v>
@@ -6661,10 +6661,10 @@
         <v>1407.504522645592</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y31" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112808</v>
       </c>
       <c r="C32" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497865</v>
       </c>
       <c r="D32" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216583</v>
       </c>
       <c r="E32" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943808</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796666</v>
+        <v>725.1782574796689</v>
       </c>
       <c r="G32" t="n">
         <v>342.8002736162838</v>
@@ -6698,22 +6698,22 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J32" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076843</v>
       </c>
       <c r="K32" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951463</v>
       </c>
       <c r="L32" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N32" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O32" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P32" t="n">
         <v>3813.656640612703</v>
@@ -6725,25 +6725,25 @@
         <v>4249.020448755811</v>
       </c>
       <c r="S32" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T32" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U32" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V32" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W32" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X32" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y32" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.132983851462</v>
       </c>
     </row>
     <row r="33">
@@ -6783,13 +6783,13 @@
         <v>519.5985603334502</v>
       </c>
       <c r="L33" t="n">
-        <v>973.3971899277776</v>
+        <v>922.4654228388466</v>
       </c>
       <c r="M33" t="n">
-        <v>1522.315654538067</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N33" t="n">
-        <v>2100.171002464469</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O33" t="n">
         <v>2555.644190323788</v>
@@ -6838,19 +6838,19 @@
         <v>735.855734147772</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609049</v>
+        <v>617.6685920609043</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039799</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315387</v>
+        <v>386.7245456315383</v>
       </c>
       <c r="G34" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749442</v>
       </c>
       <c r="H34" t="n">
-        <v>140.0574709897931</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I34" t="n">
         <v>84.98040897511622</v>
@@ -6859,31 +6859,31 @@
         <v>185.1742787042785</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443606</v>
+        <v>459.5287020443613</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3827676902781</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M34" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N34" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O34" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P34" t="n">
         <v>2392.455631028689</v>
       </c>
       <c r="Q34" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R34" t="n">
         <v>2487.049233352543</v>
       </c>
       <c r="S34" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T34" t="n">
         <v>2144.901839127669</v>
@@ -6898,7 +6898,7 @@
         <v>1407.504522645592</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y34" t="n">
         <v>1022.581387254981</v>
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2121.462641112805</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C35" t="n">
-        <v>1784.429621497862</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D35" t="n">
-        <v>1458.09342021658</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E35" t="n">
         <v>1104.234664943806</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G35" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H35" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I35" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J35" t="n">
-        <v>337.4933016076837</v>
+        <v>337.493301607683</v>
       </c>
       <c r="K35" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951441</v>
       </c>
       <c r="L35" t="n">
         <v>1336.032957050962</v>
@@ -6950,37 +6950,37 @@
         <v>2681.771598889753</v>
       </c>
       <c r="O35" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P35" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q35" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R35" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S35" t="n">
-        <v>4188.091007924545</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T35" t="n">
-        <v>4017.391409283563</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U35" t="n">
-        <v>3795.85162740016</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V35" t="n">
-        <v>3496.718237382058</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W35" t="n">
-        <v>3175.879079437412</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X35" t="n">
-        <v>2834.342818501801</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y35" t="n">
-        <v>2476.132983851458</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="36">
@@ -7008,10 +7008,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H36" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I36" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J36" t="n">
         <v>216.5575109835859</v>
@@ -7020,22 +7020,22 @@
         <v>519.5985603334502</v>
       </c>
       <c r="L36" t="n">
-        <v>688.8525027970471</v>
+        <v>535.3638672866908</v>
       </c>
       <c r="M36" t="n">
-        <v>1237.770967407336</v>
+        <v>1084.28233189698</v>
       </c>
       <c r="N36" t="n">
-        <v>1815.626315333739</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O36" t="n">
-        <v>2322.031270281989</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P36" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q36" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R36" t="n">
         <v>2555.644190323788</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502103</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477721</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D37" t="n">
-        <v>617.668592060905</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039805</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315388</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H37" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I37" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042783</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K37" t="n">
         <v>459.5287020443611</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M37" t="n">
         <v>1285.552079040893</v>
@@ -7123,16 +7123,16 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T37" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U37" t="n">
         <v>1887.747186237502</v>
       </c>
       <c r="V37" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W37" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X37" t="n">
         <v>1211.444469073043</v>
@@ -7151,7 +7151,7 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C38" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D38" t="n">
         <v>1458.093420216582</v>
@@ -7160,22 +7160,22 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F38" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G38" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H38" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I38" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J38" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K38" t="n">
-        <v>766.6831886951447</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L38" t="n">
         <v>1336.032957050963</v>
@@ -7187,28 +7187,28 @@
         <v>2681.771598889754</v>
       </c>
       <c r="O38" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P38" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q38" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R38" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S38" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T38" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U38" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V38" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W38" t="n">
         <v>3175.879079437414</v>
@@ -7245,28 +7245,28 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H39" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I39" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J39" t="n">
-        <v>84.98040897511621</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K39" t="n">
-        <v>235.0538732027197</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L39" t="n">
-        <v>688.8525027970471</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.770967407336</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N39" t="n">
-        <v>1815.626315333739</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="O39" t="n">
-        <v>2322.031270281989</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="P39" t="n">
         <v>2322.031270281989</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502098</v>
+        <v>872.8624197502095</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477716</v>
+        <v>735.8557341477713</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609042</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039797</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G40" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H40" t="n">
         <v>140.0574709897931</v>
       </c>
       <c r="I40" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J40" t="n">
         <v>185.1742787042785</v>
@@ -7336,22 +7336,22 @@
         <v>459.5287020443612</v>
       </c>
       <c r="L40" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M40" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N40" t="n">
         <v>1709.719201354973</v>
       </c>
       <c r="O40" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P40" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q40" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R40" t="n">
         <v>2487.049233352542</v>
@@ -7385,43 +7385,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2121.462641112808</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C41" t="n">
-        <v>1784.429621497865</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D41" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E41" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796684</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G41" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H41" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511606</v>
       </c>
       <c r="I41" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J41" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076842</v>
       </c>
       <c r="K41" t="n">
-        <v>766.6831886951448</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L41" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M41" t="n">
-        <v>2001.21371374674</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N41" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O41" t="n">
         <v>3311.067850233288</v>
@@ -7430,31 +7430,31 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q41" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R41" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S41" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T41" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U41" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V41" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W41" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X41" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y41" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H42" t="n">
-        <v>89.89576342177182</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I42" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J42" t="n">
-        <v>84.98040897511625</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K42" t="n">
-        <v>84.98040897511625</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L42" t="n">
-        <v>301.7509472448914</v>
+        <v>535.3638672866908</v>
       </c>
       <c r="M42" t="n">
-        <v>850.6694118551806</v>
+        <v>1084.28233189698</v>
       </c>
       <c r="N42" t="n">
-        <v>1428.524759781583</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O42" t="n">
-        <v>1934.929714729833</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P42" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q42" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R42" t="n">
         <v>2555.644190323788</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G43" t="n">
         <v>251.2943450749444</v>
       </c>
       <c r="H43" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I43" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J43" t="n">
         <v>185.1742787042784</v>
@@ -7582,7 +7582,7 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O43" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P43" t="n">
         <v>2392.455631028688</v>
@@ -7591,13 +7591,13 @@
         <v>2529.521427597205</v>
       </c>
       <c r="R43" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S43" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T43" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U43" t="n">
         <v>1887.747186237502</v>
@@ -7609,7 +7609,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y43" t="n">
         <v>1022.581387254981</v>
@@ -7634,10 +7634,10 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796672</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G44" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H44" t="n">
         <v>84.98040897511622</v>
@@ -7649,25 +7649,25 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K44" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L44" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050965</v>
       </c>
       <c r="M44" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O44" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P44" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612705</v>
       </c>
       <c r="Q44" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R44" t="n">
         <v>4249.020448755811</v>
@@ -7728,22 +7728,22 @@
         <v>216.5575109835859</v>
       </c>
       <c r="K45" t="n">
-        <v>326.5159252754111</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L45" t="n">
-        <v>326.5159252754111</v>
+        <v>535.3638672866908</v>
       </c>
       <c r="M45" t="n">
-        <v>875.4343898857002</v>
+        <v>1084.28233189698</v>
       </c>
       <c r="N45" t="n">
-        <v>1453.289737812102</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O45" t="n">
-        <v>1959.694692760353</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P45" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q45" t="n">
         <v>2555.644190323788</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502095</v>
+        <v>872.8624197502101</v>
       </c>
       <c r="C46" t="n">
-        <v>735.8557341477713</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609042</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039797</v>
+        <v>501.68499580398</v>
       </c>
       <c r="F46" t="n">
-        <v>386.724545631538</v>
+        <v>386.7245456315383</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2943450749439</v>
+        <v>251.2943450749441</v>
       </c>
       <c r="H46" t="n">
-        <v>140.0574709897926</v>
+        <v>140.0574709897928</v>
       </c>
       <c r="I46" t="n">
         <v>84.98040897511622</v>
@@ -7828,25 +7828,25 @@
         <v>2529.521427597204</v>
       </c>
       <c r="R46" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S46" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T46" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U46" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V46" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W46" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X46" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y46" t="n">
         <v>1022.581387254981</v>
@@ -7985,19 +7985,19 @@
         <v>42.82771425184718</v>
       </c>
       <c r="M2" t="n">
-        <v>14.08801877595884</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N2" t="n">
-        <v>8.863857440501675</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>9.161922983629779</v>
+        <v>18.02578042413145</v>
       </c>
       <c r="P2" t="n">
         <v>42.66898511507466</v>
       </c>
       <c r="Q2" t="n">
-        <v>80.70197082457096</v>
+        <v>94.69342620105843</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8137,7 +8137,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>74.66702992711939</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L4" t="n">
         <v>47.4359690887577</v>
@@ -8146,13 +8146,13 @@
         <v>60.7148388031226</v>
       </c>
       <c r="N4" t="n">
-        <v>51.10165499429822</v>
+        <v>51.66696632264114</v>
       </c>
       <c r="O4" t="n">
-        <v>69.30915932737095</v>
+        <v>69.30915932737096</v>
       </c>
       <c r="P4" t="n">
-        <v>66.5883684560963</v>
+        <v>80.01451250424086</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>51.46730465439157</v>
+        <v>108.917391799272</v>
       </c>
       <c r="K5" t="n">
-        <v>25.8851196232464</v>
+        <v>25.88511962324611</v>
       </c>
       <c r="L5" t="n">
-        <v>6.963429866464791</v>
+        <v>52.28836002915615</v>
       </c>
       <c r="M5" t="n">
-        <v>19.71734041868007</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>4.705270076970478</v>
       </c>
       <c r="O5" t="n">
-        <v>30.31285982098194</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>69.13858728300289</v>
+        <v>11.68850013812235</v>
       </c>
       <c r="Q5" t="n">
-        <v>57.4369168208344</v>
+        <v>57.43691682083414</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>49.6615002850056</v>
+        <v>49.66150028500549</v>
       </c>
       <c r="K6" t="n">
-        <v>5.935146555547618</v>
+        <v>5.935146555547419</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>35.70927131401167</v>
+        <v>35.70927131401152</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8374,22 +8374,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>49.44790404469485</v>
+        <v>49.44790404469472</v>
       </c>
       <c r="L7" t="n">
-        <v>90.51850353769936</v>
+        <v>33.06841639281899</v>
       </c>
       <c r="M7" t="n">
-        <v>86.70368509096676</v>
+        <v>86.70368509096704</v>
       </c>
       <c r="N7" t="n">
-        <v>80.33722738473979</v>
+        <v>80.33722738474006</v>
       </c>
       <c r="O7" t="n">
-        <v>99.10833718134201</v>
+        <v>99.10833718134228</v>
       </c>
       <c r="P7" t="n">
-        <v>54.90034588872646</v>
+        <v>112.350433033607</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>7.091680627731932</v>
+        <v>56.36325065172256</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>49.27157002399062</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8617,16 +8617,16 @@
         <v>155.3190545659416</v>
       </c>
       <c r="M10" t="n">
-        <v>39.69601399659384</v>
+        <v>151.9300289740655</v>
       </c>
       <c r="N10" t="n">
-        <v>144.1165101169799</v>
+        <v>140.3539597673542</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P10" t="n">
-        <v>135.0065633140411</v>
+        <v>26.53509868619514</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>-1.920575415343947e-13</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.506350599811412e-12</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -23258,25 +23258,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>198.2808315333501</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>8.211116127621967</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.187761788176</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>216.1330742479088</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>47.29464513706776</v>
       </c>
     </row>
     <row r="14">
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>28.90056660389948</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>202.4786139429426</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23555,13 +23555,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>15.47165216254427</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>275.8854967479931</v>
       </c>
     </row>
     <row r="15">
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.8783163942143</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>143.4436781526119</v>
       </c>
       <c r="I16" t="n">
-        <v>91.91693778434403</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,13 +23701,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>187.1986443782762</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>5.259334283562985</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2037931948048</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>103.2019738582328</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>3.481659405224491e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>-1.800799509510398e-12</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-9.237055564881302e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24136,7 +24136,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>-3.75877107217093e-12</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>3.055333763768431e-13</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>-6.110667527536862e-13</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>-2.131628207280301e-13</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1.158184659288963e-12</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1034644.718003908</v>
+        <v>1034644.718003907</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1180353.569461813</v>
+        <v>1180353.569461814</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1180353.569461814</v>
+        <v>1180353.569461813</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1180353.569461814</v>
+        <v>1180353.569461813</v>
       </c>
     </row>
     <row r="16">
@@ -26314,7 +26314,7 @@
         <v>266838.575205892</v>
       </c>
       <c r="C2" t="n">
-        <v>266838.5752058923</v>
+        <v>266838.5752058922</v>
       </c>
       <c r="D2" t="n">
         <v>266838.575205892</v>
@@ -26323,34 +26323,34 @@
         <v>221648.1143310984</v>
       </c>
       <c r="F2" t="n">
-        <v>233606.7318909311</v>
+        <v>233606.731890931</v>
       </c>
       <c r="G2" t="n">
-        <v>266838.5752058922</v>
+        <v>266838.5752058921</v>
       </c>
       <c r="H2" t="n">
         <v>266838.5752058921</v>
       </c>
       <c r="I2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.5752058923</v>
       </c>
       <c r="J2" t="n">
         <v>266838.5752058922</v>
       </c>
       <c r="K2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.5752058923</v>
       </c>
       <c r="L2" t="n">
         <v>266838.5752058921</v>
       </c>
       <c r="M2" t="n">
-        <v>266838.575205892</v>
+        <v>266838.5752058921</v>
       </c>
       <c r="N2" t="n">
-        <v>266838.5752058924</v>
+        <v>266838.5752058922</v>
       </c>
       <c r="O2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.5752058919</v>
       </c>
       <c r="P2" t="n">
         <v>266838.5752058921</v>
@@ -26366,43 +26366,43 @@
         <v>319001.5267229508</v>
       </c>
       <c r="C3" t="n">
-        <v>62839.9198607344</v>
+        <v>62839.91986073506</v>
       </c>
       <c r="D3" t="n">
-        <v>142342.8225818698</v>
+        <v>142342.8225818691</v>
       </c>
       <c r="E3" t="n">
         <v>667257.5729881104</v>
       </c>
       <c r="F3" t="n">
-        <v>93369.88484654298</v>
+        <v>93369.88484654248</v>
       </c>
       <c r="G3" t="n">
-        <v>143964.0818975337</v>
+        <v>143964.0818975341</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3660.780350525687</v>
+        <v>3660.780350525664</v>
       </c>
       <c r="K3" t="n">
-        <v>11184.86114096776</v>
+        <v>11184.86114096782</v>
       </c>
       <c r="L3" t="n">
-        <v>50513.40139700585</v>
+        <v>50513.40139700598</v>
       </c>
       <c r="M3" t="n">
-        <v>168033.9493212428</v>
+        <v>168033.949321243</v>
       </c>
       <c r="N3" t="n">
-        <v>24549.15438613175</v>
+        <v>24549.15438613158</v>
       </c>
       <c r="O3" t="n">
-        <v>31434.59456875973</v>
+        <v>31434.59456875951</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>349184.4550287493</v>
+        <v>349184.4550287492</v>
       </c>
       <c r="C4" t="n">
-        <v>330706.6735055316</v>
+        <v>330706.6735055314</v>
       </c>
       <c r="D4" t="n">
-        <v>287430.0799408478</v>
+        <v>287430.0799408477</v>
       </c>
       <c r="E4" t="n">
         <v>10990.29103211609</v>
@@ -26430,34 +26430,34 @@
         <v>11042.15861061438</v>
       </c>
       <c r="G4" t="n">
+        <v>42179.65104603475</v>
+      </c>
+      <c r="H4" t="n">
+        <v>42179.65104603481</v>
+      </c>
+      <c r="I4" t="n">
+        <v>42179.65104603471</v>
+      </c>
+      <c r="J4" t="n">
+        <v>42179.65104603468</v>
+      </c>
+      <c r="K4" t="n">
+        <v>42179.65104603469</v>
+      </c>
+      <c r="L4" t="n">
+        <v>42179.65104603471</v>
+      </c>
+      <c r="M4" t="n">
+        <v>42179.65104603465</v>
+      </c>
+      <c r="N4" t="n">
+        <v>42179.65104603468</v>
+      </c>
+      <c r="O4" t="n">
         <v>42179.65104603464</v>
       </c>
-      <c r="H4" t="n">
-        <v>42179.65104603463</v>
-      </c>
-      <c r="I4" t="n">
-        <v>42179.65104603465</v>
-      </c>
-      <c r="J4" t="n">
-        <v>42179.65104603465</v>
-      </c>
-      <c r="K4" t="n">
-        <v>42179.65104603471</v>
-      </c>
-      <c r="L4" t="n">
-        <v>42179.65104603465</v>
-      </c>
-      <c r="M4" t="n">
-        <v>42179.65104603477</v>
-      </c>
-      <c r="N4" t="n">
-        <v>42179.65104603466</v>
-      </c>
-      <c r="O4" t="n">
-        <v>42179.65104603469</v>
-      </c>
       <c r="P4" t="n">
-        <v>42179.65104603464</v>
+        <v>42179.6510460346</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>41589.03570424159</v>
       </c>
       <c r="C5" t="n">
-        <v>45399.59565181582</v>
+        <v>45399.59565181586</v>
       </c>
       <c r="D5" t="n">
         <v>54294.69533421406</v>
@@ -26479,7 +26479,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>82183.39720390702</v>
+        <v>82183.39720390698</v>
       </c>
       <c r="G5" t="n">
         <v>95106.43410215527</v>
@@ -26494,19 +26494,19 @@
         <v>95106.43410215527</v>
       </c>
       <c r="K5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="L5" t="n">
+        <v>95106.43410215528</v>
+      </c>
+      <c r="M5" t="n">
         <v>95106.43410215527</v>
       </c>
-      <c r="M5" t="n">
-        <v>95106.43410215525</v>
-      </c>
       <c r="N5" t="n">
+        <v>95106.43410215528</v>
+      </c>
+      <c r="O5" t="n">
         <v>95106.43410215527</v>
-      </c>
-      <c r="O5" t="n">
-        <v>95106.4341021553</v>
       </c>
       <c r="P5" t="n">
         <v>95106.43410215527</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-442936.4422500497</v>
+        <v>-442936.4422500496</v>
       </c>
       <c r="C6" t="n">
-        <v>-172107.6138121895</v>
+        <v>-172107.6138121901</v>
       </c>
       <c r="D6" t="n">
-        <v>-217229.0226510395</v>
+        <v>-217229.0226510389</v>
       </c>
       <c r="E6" t="n">
-        <v>-530906.0902505214</v>
+        <v>-531253.7091803275</v>
       </c>
       <c r="F6" t="n">
-        <v>47011.29122986666</v>
+        <v>46755.66166590594</v>
       </c>
       <c r="G6" t="n">
-        <v>-14411.59183983141</v>
+        <v>-14411.59183983206</v>
       </c>
       <c r="H6" t="n">
-        <v>129552.4900577022</v>
+        <v>129552.490057702</v>
       </c>
       <c r="I6" t="n">
-        <v>129552.4900577022</v>
+        <v>129552.4900577024</v>
       </c>
       <c r="J6" t="n">
         <v>125891.7097071766</v>
       </c>
       <c r="K6" t="n">
-        <v>118367.6289167344</v>
+        <v>118367.6289167345</v>
       </c>
       <c r="L6" t="n">
-        <v>79039.08866069638</v>
+        <v>79039.08866069613</v>
       </c>
       <c r="M6" t="n">
-        <v>-38481.45926354083</v>
+        <v>-38481.45926354078</v>
       </c>
       <c r="N6" t="n">
-        <v>105003.3356715708</v>
+        <v>105003.3356715707</v>
       </c>
       <c r="O6" t="n">
         <v>98117.89548894242</v>
       </c>
       <c r="P6" t="n">
-        <v>129552.4900577022</v>
+        <v>129552.4900577023</v>
       </c>
     </row>
   </sheetData>
@@ -26698,25 +26698,25 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="H2" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="I2" t="n">
+        <v>31.61020235221407</v>
+      </c>
+      <c r="J2" t="n">
+        <v>31.61020235221397</v>
+      </c>
+      <c r="K2" t="n">
+        <v>31.61020235221397</v>
+      </c>
+      <c r="L2" t="n">
+        <v>31.610202352214</v>
+      </c>
+      <c r="M2" t="n">
         <v>31.61020235221394</v>
-      </c>
-      <c r="J2" t="n">
-        <v>31.61020235221394</v>
-      </c>
-      <c r="K2" t="n">
-        <v>31.61020235221394</v>
-      </c>
-      <c r="L2" t="n">
-        <v>31.61020235221394</v>
-      </c>
-      <c r="M2" t="n">
-        <v>31.61020235221397</v>
       </c>
       <c r="N2" t="n">
         <v>31.61020235221397</v>
@@ -26725,7 +26725,7 @@
         <v>31.61020235221394</v>
       </c>
       <c r="P2" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>326.1814319885848</v>
       </c>
       <c r="C3" t="n">
-        <v>379.7720345599589</v>
+        <v>379.7720345599594</v>
       </c>
       <c r="D3" t="n">
         <v>509.8291662011504</v>
@@ -26790,7 +26790,7 @@
         <v>13.99145537648747</v>
       </c>
       <c r="C4" t="n">
-        <v>57.45008714488022</v>
+        <v>57.45008714488066</v>
       </c>
       <c r="D4" t="n">
         <v>157.1187419577134</v>
@@ -26799,16 +26799,16 @@
         <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>931.6319501461621</v>
+        <v>931.6319501461617</v>
       </c>
       <c r="G4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188952</v>
       </c>
       <c r="H4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188952</v>
       </c>
       <c r="I4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188952</v>
       </c>
       <c r="J4" t="n">
         <v>1062.255112188953</v>
@@ -26820,7 +26820,7 @@
         <v>1062.255112188953</v>
       </c>
       <c r="M4" t="n">
-        <v>1062.255112188952</v>
+        <v>1062.255112188953</v>
       </c>
       <c r="N4" t="n">
         <v>1062.255112188953</v>
@@ -26920,10 +26920,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26960,19 +26960,19 @@
         <v>326.1814319885848</v>
       </c>
       <c r="C3" t="n">
-        <v>53.59060257137406</v>
+        <v>53.59060257137463</v>
       </c>
       <c r="D3" t="n">
-        <v>130.0571316411915</v>
+        <v>130.0571316411909</v>
       </c>
       <c r="E3" t="n">
         <v>579.9475343921479</v>
       </c>
       <c r="F3" t="n">
-        <v>81.79094321497519</v>
+        <v>81.79094321497473</v>
       </c>
       <c r="G3" t="n">
-        <v>106.5922268118493</v>
+        <v>106.5922268118497</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>13.99145537648747</v>
       </c>
       <c r="C4" t="n">
-        <v>43.45863176839275</v>
+        <v>43.45863176839319</v>
       </c>
       <c r="D4" t="n">
-        <v>99.66865481283318</v>
+        <v>99.66865481283276</v>
       </c>
       <c r="E4" t="n">
         <v>674.2827134445794</v>
       </c>
       <c r="F4" t="n">
-        <v>100.2304947438694</v>
+        <v>100.2304947438689</v>
       </c>
       <c r="G4" t="n">
         <v>130.6231620427907</v>
@@ -27033,22 +27033,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>13.99145537648747</v>
+        <v>13.99145537648769</v>
       </c>
       <c r="K4" t="n">
-        <v>43.45863176839298</v>
+        <v>43.45863176839319</v>
       </c>
       <c r="L4" t="n">
-        <v>99.66865481283295</v>
+        <v>99.66865481283298</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2827134445789</v>
+        <v>674.2827134445794</v>
       </c>
       <c r="N4" t="n">
-        <v>100.2304947438696</v>
+        <v>100.2304947438689</v>
       </c>
       <c r="O4" t="n">
-        <v>130.6231620427911</v>
+        <v>130.6231620427907</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27157,10 +27157,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>13.99145537648747</v>
       </c>
       <c r="K4" t="n">
-        <v>43.45863176839275</v>
+        <v>43.45863176839319</v>
       </c>
       <c r="L4" t="n">
-        <v>99.66865481283318</v>
+        <v>99.66865481283276</v>
       </c>
       <c r="M4" t="n">
         <v>674.2827134445794</v>
       </c>
       <c r="N4" t="n">
-        <v>100.2304947438694</v>
+        <v>100.2304947438689</v>
       </c>
       <c r="O4" t="n">
         <v>130.6231620427907</v>
@@ -27397,7 +27397,7 @@
         <v>313.7219600177325</v>
       </c>
       <c r="I2" t="n">
-        <v>145.9312295437077</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>67.4992912993288</v>
       </c>
       <c r="S2" t="n">
-        <v>179.1392278518137</v>
+        <v>165.1477724753262</v>
       </c>
       <c r="T2" t="n">
         <v>217.3557120022016</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>154.2095097542572</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27464,10 +27464,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>145.3214065597908</v>
+        <v>143.6536250789135</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>131.0777570168964</v>
       </c>
       <c r="G3" t="n">
         <v>136.6419193661031</v>
@@ -27476,7 +27476,7 @@
         <v>105.4594865644317</v>
       </c>
       <c r="I3" t="n">
-        <v>65.24074378433592</v>
+        <v>51.24928840784844</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>42.60577168907633</v>
+        <v>56.59722706556381</v>
       </c>
       <c r="S3" t="n">
         <v>158.6512997408977</v>
       </c>
       <c r="T3" t="n">
-        <v>183.3453418466595</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U3" t="n">
         <v>225.8952243311651</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>191.6912404008169</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>134.110288750959</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,13 +27552,13 @@
         <v>167.4027833335613</v>
       </c>
       <c r="H4" t="n">
-        <v>143.0061197459548</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I4" t="n">
-        <v>137.761816287615</v>
+        <v>123.7703609111276</v>
       </c>
       <c r="J4" t="n">
-        <v>37.78226577993573</v>
+        <v>51.77372115642321</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>22.9171916449306</v>
+        <v>36.90864702141808</v>
       </c>
       <c r="R4" t="n">
-        <v>150.8459592031442</v>
+        <v>136.8545038266568</v>
       </c>
       <c r="S4" t="n">
         <v>213.7659454939867</v>
       </c>
       <c r="T4" t="n">
-        <v>225.4323882309924</v>
+        <v>213.1087143353822</v>
       </c>
       <c r="U4" t="n">
         <v>286.286945936951</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>211.7182000125497</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>324.4802829273811</v>
       </c>
       <c r="F5" t="n">
-        <v>356.2740089845009</v>
+        <v>349.4259585968308</v>
       </c>
       <c r="G5" t="n">
-        <v>356.3259286232801</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>266.3891758796822</v>
+        <v>323.8392630245624</v>
       </c>
       <c r="I5" t="n">
-        <v>94.16686227528319</v>
+        <v>151.6169494201633</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>53.9661830027496</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.2298977770591</v>
@@ -27673,7 +27673,7 @@
         <v>251.2235151680785</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>287.4423333389532</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27695,13 +27695,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>115.2584118434351</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>156.4833974618635</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27713,7 +27713,7 @@
         <v>104.3462176317698</v>
       </c>
       <c r="I6" t="n">
-        <v>61.27200576372</v>
+        <v>3.821918618839302</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,19 +27740,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.44035376367351</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>156.5102034966546</v>
       </c>
       <c r="T6" t="n">
-        <v>146.2701400530771</v>
+        <v>196.8721768102876</v>
       </c>
       <c r="U6" t="n">
-        <v>168.4375536104493</v>
+        <v>225.8876407553295</v>
       </c>
       <c r="V6" t="n">
-        <v>175.350500004545</v>
+        <v>175.3505000045446</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27761,7 +27761,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>148.2326086324241</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>109.7967339537476</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3061445420392</v>
+        <v>109.8560573971585</v>
       </c>
       <c r="H7" t="n">
         <v>156.1383684123635</v>
@@ -27795,7 +27795,7 @@
         <v>134.8556242662034</v>
       </c>
       <c r="J7" t="n">
-        <v>44.94135859580721</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,16 +27822,16 @@
         <v>146.500727722521</v>
       </c>
       <c r="S7" t="n">
-        <v>212.0817949180962</v>
+        <v>154.6317077732155</v>
       </c>
       <c r="T7" t="n">
-        <v>167.5693898859721</v>
+        <v>190.7251777577084</v>
       </c>
       <c r="U7" t="n">
-        <v>264.4961040060708</v>
+        <v>286.2816747301407</v>
       </c>
       <c r="V7" t="n">
-        <v>194.6875561789478</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27868,10 +27868,10 @@
         <v>256.1344310701809</v>
       </c>
       <c r="H8" t="n">
-        <v>175.5589873323091</v>
+        <v>318.4846998108122</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>131.4600546760547</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>162.3156188332455</v>
+        <v>5.19687687553207</v>
       </c>
       <c r="T8" t="n">
         <v>214.1238810212347</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>268.9709134592091</v>
       </c>
     </row>
     <row r="9">
@@ -27932,22 +27932,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>33.46853495409945</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0.5263384976875329</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.2469034849667</v>
       </c>
       <c r="H9" t="n">
-        <v>101.6444647650348</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>51.64041629783932</v>
@@ -27977,19 +27977,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>32.071591919214</v>
       </c>
       <c r="S9" t="n">
-        <v>151.3140530013673</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>195.7446060180399</v>
       </c>
       <c r="U9" t="n">
-        <v>68.75049448653483</v>
+        <v>225.8692364442482</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>178.2006454774305</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>39.05081066154347</v>
       </c>
       <c r="C10" t="n">
         <v>10.12807914091442</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,13 +28026,13 @@
         <v>167.07161528826</v>
       </c>
       <c r="H10" t="n">
-        <v>154.0531901378539</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>127.8026899798254</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>28.36014035361792</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>135.9554396389582</v>
       </c>
       <c r="S10" t="n">
         <v>207.9945896499623</v>
       </c>
       <c r="T10" t="n">
-        <v>102.0018867658069</v>
+        <v>224.0173974919776</v>
       </c>
       <c r="U10" t="n">
-        <v>129.1501402676757</v>
+        <v>286.2688822253891</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="C17" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="D17" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="E17" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="F17" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="G17" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="H17" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="I17" t="n">
         <v>12.38037836605497</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="T17" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="U17" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="V17" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="W17" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="X17" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221405</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="C19" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="D19" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="E19" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="F19" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="G19" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="H19" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="I19" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="J19" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="K19" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="L19" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="M19" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="N19" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="O19" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="P19" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="R19" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="S19" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="T19" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="U19" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="V19" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="W19" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="X19" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221405</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="C20" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="D20" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="E20" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="F20" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="G20" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="H20" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="I20" t="n">
         <v>12.38037836605497</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="T20" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="U20" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="V20" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="W20" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="X20" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221411</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="C22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="D22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="E22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="F22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="G22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="H22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="I22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="J22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="K22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="L22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="M22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="N22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="O22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="P22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="R22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="S22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="T22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="U22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="V22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="W22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="X22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221411</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="C23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="D23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="E23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="F23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="G23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="H23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="I23" t="n">
         <v>12.38037836605497</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="T23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="U23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="V23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="W23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="X23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="C25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="D25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="E25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="F25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="G25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="H25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="I25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="J25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="K25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="L25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="M25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="N25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="O25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="P25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221103</v>
       </c>
       <c r="R25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="S25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="T25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="U25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="V25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="W25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="X25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I26" t="n">
         <v>12.38037836605497</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I29" t="n">
         <v>12.38037836605497</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="I32" t="n">
         <v>12.38037836605497</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221594</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I35" t="n">
         <v>12.38037836605497</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="38">
@@ -30423,7 +30423,7 @@
         <v>31.61020235221397</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221288</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="R40" t="n">
         <v>31.61020235221397</v>
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="I44" t="n">
         <v>12.38037836605497</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
     </row>
   </sheetData>
@@ -31133,7 +31133,7 @@
         <v>113.2926583162616</v>
       </c>
       <c r="L3" t="n">
-        <v>152.335960288631</v>
+        <v>151.9805238280187</v>
       </c>
       <c r="M3" t="n">
         <v>156.1254892985058</v>
@@ -31142,7 +31142,7 @@
         <v>145.3331674598208</v>
       </c>
       <c r="O3" t="n">
-        <v>156.2322633603196</v>
+        <v>156.5876998209319</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.526721746974708</v>
+        <v>1.52672174697471</v>
       </c>
       <c r="H5" t="n">
-        <v>15.63553909120473</v>
+        <v>15.63553909120475</v>
       </c>
       <c r="I5" t="n">
-        <v>58.85894015024248</v>
+        <v>58.85894015024257</v>
       </c>
       <c r="J5" t="n">
-        <v>129.5785998722947</v>
+        <v>129.5785998722949</v>
       </c>
       <c r="K5" t="n">
-        <v>194.2047314217342</v>
+        <v>194.2047314217344</v>
       </c>
       <c r="L5" t="n">
-        <v>240.9281420857114</v>
+        <v>240.9281420857118</v>
       </c>
       <c r="M5" t="n">
-        <v>268.0789799534729</v>
+        <v>268.0789799534733</v>
       </c>
       <c r="N5" t="n">
-        <v>272.4167781170648</v>
+        <v>272.4167781170652</v>
       </c>
       <c r="O5" t="n">
-        <v>257.235438745585</v>
+        <v>257.2354387455854</v>
       </c>
       <c r="P5" t="n">
-        <v>219.5444956171469</v>
+        <v>219.5444956171472</v>
       </c>
       <c r="Q5" t="n">
-        <v>164.8687730536151</v>
+        <v>164.8687730536153</v>
       </c>
       <c r="R5" t="n">
-        <v>95.90293493840008</v>
+        <v>95.90293493840022</v>
       </c>
       <c r="S5" t="n">
-        <v>34.79017180918619</v>
+        <v>34.79017180918624</v>
       </c>
       <c r="T5" t="n">
-        <v>6.683224447381787</v>
+        <v>6.683224447381797</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1221377397579766</v>
+        <v>0.1221377397579768</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8168681498082134</v>
+        <v>0.8168681498082146</v>
       </c>
       <c r="H6" t="n">
-        <v>7.889226604726693</v>
+        <v>7.889226604726706</v>
       </c>
       <c r="I6" t="n">
-        <v>28.12462708769507</v>
+        <v>28.12462708769511</v>
       </c>
       <c r="J6" t="n">
-        <v>77.17612638166109</v>
+        <v>77.17612638166121</v>
       </c>
       <c r="K6" t="n">
-        <v>131.9062924188114</v>
+        <v>131.9062924188116</v>
       </c>
       <c r="L6" t="n">
-        <v>177.3642884046299</v>
+        <v>177.3642884046301</v>
       </c>
       <c r="M6" t="n">
-        <v>199.5841210668985</v>
+        <v>199.584121066899</v>
       </c>
       <c r="N6" t="n">
-        <v>188.7917992282135</v>
+        <v>188.791799228214</v>
       </c>
       <c r="O6" t="n">
-        <v>194.3537128186235</v>
+        <v>194.3537128186238</v>
       </c>
       <c r="P6" t="n">
-        <v>155.9859890629386</v>
+        <v>155.9859890629388</v>
       </c>
       <c r="Q6" t="n">
-        <v>104.2725027720098</v>
+        <v>104.27250277201</v>
       </c>
       <c r="R6" t="n">
-        <v>50.71748038896962</v>
+        <v>50.7174803889697</v>
       </c>
       <c r="S6" t="n">
-        <v>15.17296760718325</v>
+        <v>15.17296760718327</v>
       </c>
       <c r="T6" t="n">
-        <v>3.292551884533982</v>
+        <v>3.292551884533987</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05374132564527722</v>
+        <v>0.0537413256452773</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6848348164195979</v>
+        <v>0.6848348164195989</v>
       </c>
       <c r="H7" t="n">
-        <v>6.088804095076066</v>
+        <v>6.088804095076075</v>
       </c>
       <c r="I7" t="n">
-        <v>20.59485066105482</v>
+        <v>20.59485066105485</v>
       </c>
       <c r="J7" t="n">
-        <v>48.41782152086557</v>
+        <v>48.41782152086564</v>
       </c>
       <c r="K7" t="n">
-        <v>79.56535412584053</v>
+        <v>79.56535412584066</v>
       </c>
       <c r="L7" t="n">
-        <v>101.8162598884191</v>
+        <v>101.8162598884193</v>
       </c>
       <c r="M7" t="n">
-        <v>107.3509703593011</v>
+        <v>107.3509703593013</v>
       </c>
       <c r="N7" t="n">
-        <v>104.7984042253736</v>
+        <v>104.7984042253738</v>
       </c>
       <c r="O7" t="n">
-        <v>96.79828841538101</v>
+        <v>96.79828841538117</v>
       </c>
       <c r="P7" t="n">
-        <v>82.82765816042115</v>
+        <v>82.82765816042127</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.34557721855379</v>
+        <v>57.34557721855387</v>
       </c>
       <c r="R7" t="n">
-        <v>30.79266365464846</v>
+        <v>30.7926636546485</v>
       </c>
       <c r="S7" t="n">
-        <v>11.93480311887608</v>
+        <v>11.9348031188761</v>
       </c>
       <c r="T7" t="n">
-        <v>2.92611239742919</v>
+        <v>2.926112397429194</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03735462635015992</v>
+        <v>0.03735462635015998</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.709819673601096</v>
+        <v>4.709819673601094</v>
       </c>
       <c r="H14" t="n">
-        <v>48.23444073226724</v>
+        <v>48.23444073226722</v>
       </c>
       <c r="I14" t="n">
-        <v>181.5753229665064</v>
+        <v>181.5753229665063</v>
       </c>
       <c r="J14" t="n">
-        <v>399.7400575223014</v>
+        <v>399.7400575223012</v>
       </c>
       <c r="K14" t="n">
-        <v>599.1067243058359</v>
+        <v>599.1067243058357</v>
       </c>
       <c r="L14" t="n">
-        <v>743.2448681418056</v>
+        <v>743.2448681418053</v>
       </c>
       <c r="M14" t="n">
-        <v>827.003123762209</v>
+        <v>827.0031237622087</v>
       </c>
       <c r="N14" t="n">
-        <v>840.3848989098282</v>
+        <v>840.3848989098279</v>
       </c>
       <c r="O14" t="n">
-        <v>793.5516295304573</v>
+        <v>793.5516295304569</v>
       </c>
       <c r="P14" t="n">
-        <v>677.2779563384302</v>
+        <v>677.2779563384298</v>
       </c>
       <c r="Q14" t="n">
-        <v>508.6075392775907</v>
+        <v>508.6075392775905</v>
       </c>
       <c r="R14" t="n">
-        <v>295.8532100718451</v>
+        <v>295.853210071845</v>
       </c>
       <c r="S14" t="n">
-        <v>107.3250158121851</v>
+        <v>107.325015812185</v>
       </c>
       <c r="T14" t="n">
-        <v>20.61723562118881</v>
+        <v>20.6172356211888</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3767855738880876</v>
+        <v>0.3767855738880874</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.519975686681947</v>
+        <v>2.519975686681946</v>
       </c>
       <c r="H15" t="n">
-        <v>24.33765992137565</v>
+        <v>24.33765992137564</v>
       </c>
       <c r="I15" t="n">
-        <v>86.76232079146178</v>
+        <v>86.76232079146175</v>
       </c>
       <c r="J15" t="n">
-        <v>223.3837766951982</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>234.3875890028918</v>
       </c>
       <c r="L15" t="n">
-        <v>547.1552472332885</v>
+        <v>547.1552472332884</v>
       </c>
       <c r="M15" t="n">
-        <v>638.5043658755089</v>
+        <v>638.5043658755087</v>
       </c>
       <c r="N15" t="n">
-        <v>655.4036765111964</v>
+        <v>655.4036765111961</v>
       </c>
       <c r="O15" t="n">
-        <v>599.5663205062963</v>
+        <v>599.5663205062961</v>
       </c>
       <c r="P15" t="n">
-        <v>481.204830906836</v>
+        <v>481.2048309068358</v>
       </c>
       <c r="Q15" t="n">
-        <v>321.6726858999622</v>
+        <v>321.6726858999621</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>46.80744312762297</v>
+        <v>46.80744312762295</v>
       </c>
       <c r="T15" t="n">
-        <v>10.1572704213189</v>
+        <v>10.15727042131889</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1657878741238124</v>
+        <v>0.1657878741238123</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,46 +32145,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.112662964244427</v>
+        <v>2.112662964244426</v>
       </c>
       <c r="H16" t="n">
-        <v>18.78349435482774</v>
+        <v>18.78349435482773</v>
       </c>
       <c r="I16" t="n">
-        <v>63.53353714291426</v>
+        <v>63.53353714291423</v>
       </c>
       <c r="J16" t="n">
         <v>149.365271572081</v>
       </c>
       <c r="K16" t="n">
-        <v>245.4530243913071</v>
+        <v>245.453024391307</v>
       </c>
       <c r="L16" t="n">
-        <v>314.0953647023034</v>
+        <v>314.0953647023032</v>
       </c>
       <c r="M16" t="n">
-        <v>331.1695226587878</v>
+        <v>331.1695226587877</v>
       </c>
       <c r="N16" t="n">
-        <v>323.2950516102406</v>
+        <v>323.2950516102405</v>
       </c>
       <c r="O16" t="n">
-        <v>298.6153069824761</v>
+        <v>298.6153069824759</v>
       </c>
       <c r="P16" t="n">
-        <v>255.5169825118896</v>
+        <v>255.5169825118894</v>
       </c>
       <c r="Q16" t="n">
-        <v>176.9067142150493</v>
+        <v>176.9067142150492</v>
       </c>
       <c r="R16" t="n">
-        <v>94.99300928320851</v>
+        <v>94.99300928320847</v>
       </c>
       <c r="S16" t="n">
-        <v>36.81795365869606</v>
+        <v>36.81795365869604</v>
       </c>
       <c r="T16" t="n">
-        <v>9.026832665408005</v>
+        <v>9.026832665408001</v>
       </c>
       <c r="U16" t="n">
         <v>0.1152361616860598</v>
@@ -32315,25 +32315,25 @@
         <v>259.7437903115855</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L18" t="n">
         <v>596.9368339155584</v>
       </c>
       <c r="M18" t="n">
-        <v>349.2837806975606</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N18" t="n">
-        <v>715.0339827160628</v>
+        <v>663.5877533333045</v>
       </c>
       <c r="O18" t="n">
         <v>654.1164009578283</v>
       </c>
       <c r="P18" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32555,7 +32555,7 @@
         <v>443.943509024727</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M21" t="n">
         <v>696.5971294879669</v>
@@ -32564,13 +32564,13 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O21" t="n">
-        <v>654.1164009578283</v>
+        <v>211.6584993001651</v>
       </c>
       <c r="P21" t="n">
         <v>524.986079689235</v>
       </c>
       <c r="Q21" t="n">
-        <v>155.9063265640424</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32795,13 +32795,13 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M24" t="n">
-        <v>696.5971294879669</v>
+        <v>645.1509001052084</v>
       </c>
       <c r="N24" t="n">
         <v>715.0339827160628</v>
       </c>
       <c r="O24" t="n">
-        <v>602.6701715750701</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33023,16 +33023,16 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L27" t="n">
         <v>596.9368339155584</v>
       </c>
       <c r="M27" t="n">
-        <v>693.1474615255904</v>
+        <v>645.1509001052084</v>
       </c>
       <c r="N27" t="n">
         <v>715.0339827160628</v>
@@ -33041,7 +33041,7 @@
         <v>654.1164009578283</v>
       </c>
       <c r="P27" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33266,10 +33266,10 @@
         <v>443.943509024727</v>
       </c>
       <c r="L30" t="n">
-        <v>472.9693813169756</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>645.1509001052084</v>
       </c>
       <c r="N30" t="n">
         <v>715.0339827160628</v>
@@ -33278,13 +33278,13 @@
         <v>654.1164009578283</v>
       </c>
       <c r="P30" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>51.06610426486996</v>
@@ -33503,7 +33503,7 @@
         <v>443.943509024727</v>
       </c>
       <c r="L33" t="n">
-        <v>596.9368339155584</v>
+        <v>545.4906045327998</v>
       </c>
       <c r="M33" t="n">
         <v>696.5971294879669</v>
@@ -33512,7 +33512,7 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O33" t="n">
-        <v>602.6701715750701</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33740,7 +33740,7 @@
         <v>443.943509024727</v>
       </c>
       <c r="L36" t="n">
-        <v>309.5179580259316</v>
+        <v>154.478932257895</v>
       </c>
       <c r="M36" t="n">
         <v>696.5971294879669</v>
@@ -33752,13 +33752,13 @@
         <v>654.1164009578283</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q36" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>51.06610426486996</v>
@@ -33971,10 +33971,10 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K39" t="n">
-        <v>289.4307967800191</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L39" t="n">
         <v>596.9368339155584</v>
@@ -33983,13 +33983,13 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N39" t="n">
-        <v>715.0339827160628</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>654.1164009578283</v>
+        <v>559.3781234260266</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q39" t="n">
         <v>350.9392912691326</v>
@@ -34129,7 +34129,7 @@
         <v>198.0955112043509</v>
       </c>
       <c r="J41" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383711</v>
       </c>
       <c r="K41" t="n">
         <v>653.6149895171636</v>
@@ -34208,13 +34208,13 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L42" t="n">
-        <v>357.5145194463138</v>
+        <v>154.478932257895</v>
       </c>
       <c r="M42" t="n">
         <v>696.5971294879669</v>
@@ -34229,10 +34229,10 @@
         <v>524.986079689235</v>
       </c>
       <c r="Q42" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>51.06610426486996</v>
@@ -34448,10 +34448,10 @@
         <v>259.7437903115855</v>
       </c>
       <c r="K45" t="n">
-        <v>248.910544319637</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>154.478932257895</v>
       </c>
       <c r="M45" t="n">
         <v>696.5971294879669</v>
@@ -34466,7 +34466,7 @@
         <v>524.986079689235</v>
       </c>
       <c r="Q45" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34705,19 +34705,19 @@
         <v>13.99145537648747</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>4.562286607642875</v>
+      </c>
+      <c r="O2" t="n">
+        <v>8.863857440501675</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
         <v>13.99145537648747</v>
-      </c>
-      <c r="N2" t="n">
-        <v>13.42614404814455</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34781,7 +34781,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>13.78158050875686</v>
+        <v>13.42614404814455</v>
       </c>
       <c r="M3" t="n">
         <v>13.99145537648747</v>
@@ -34790,7 +34790,7 @@
         <v>13.99145537648747</v>
       </c>
       <c r="O3" t="n">
-        <v>13.63601891587516</v>
+        <v>13.99145537648747</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>13.99145537648747</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -34866,13 +34866,13 @@
         <v>13.99145537648747</v>
       </c>
       <c r="N4" t="n">
-        <v>13.42614404814455</v>
+        <v>13.99145537648747</v>
       </c>
       <c r="O4" t="n">
         <v>13.99145537648747</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>13.42614404814455</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>57.45008714488066</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>12.12515698218897</v>
+        <v>57.45008714488066</v>
       </c>
       <c r="M5" t="n">
-        <v>57.45008714488022</v>
+        <v>37.73274672620053</v>
       </c>
       <c r="N5" t="n">
-        <v>43.00371452047386</v>
+        <v>47.70898459744474</v>
       </c>
       <c r="O5" t="n">
-        <v>57.45008714488022</v>
+        <v>27.13722732389866</v>
       </c>
       <c r="P5" t="n">
-        <v>57.45008714488022</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35018,19 +35018,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>38.80990862475568</v>
+        <v>38.80990862475593</v>
       </c>
       <c r="M6" t="n">
-        <v>57.45008714488022</v>
+        <v>57.45008714488066</v>
       </c>
       <c r="N6" t="n">
-        <v>57.45008714488022</v>
+        <v>57.45008714488066</v>
       </c>
       <c r="O6" t="n">
-        <v>51.75746837417904</v>
+        <v>51.75746837417933</v>
       </c>
       <c r="P6" t="n">
-        <v>22.01158164860834</v>
+        <v>22.01158164860857</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35097,19 +35097,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>57.45008714488022</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>55.12887150266283</v>
+        <v>55.12887150266327</v>
       </c>
       <c r="N7" t="n">
-        <v>57.45008714488022</v>
+        <v>57.45008714488066</v>
       </c>
       <c r="O7" t="n">
-        <v>57.45008714488022</v>
+        <v>57.45008714488066</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>57.45008714488066</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>49.27157002399063</v>
       </c>
       <c r="K8" t="n">
         <v>40.62243759887707</v>
       </c>
       <c r="L8" t="n">
-        <v>136.9418028742568</v>
+        <v>87.67023285026619</v>
       </c>
       <c r="M8" t="n">
         <v>129.5393570429493</v>
@@ -35337,16 +35337,16 @@
         <v>157.1187419577134</v>
       </c>
       <c r="M10" t="n">
-        <v>44.88472698024179</v>
+        <v>157.1187419577134</v>
       </c>
       <c r="N10" t="n">
-        <v>157.1187419577134</v>
+        <v>153.3561916080877</v>
       </c>
       <c r="O10" t="n">
         <v>154.5330603090477</v>
       </c>
       <c r="P10" t="n">
-        <v>108.471464627846</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>218.6941529956151</v>
+        <v>218.694152995615</v>
       </c>
       <c r="K14" t="n">
-        <v>379.0168732608553</v>
+        <v>379.0168732608551</v>
       </c>
       <c r="L14" t="n">
-        <v>507.4784531718183</v>
+        <v>507.4784531718181</v>
       </c>
       <c r="M14" t="n">
-        <v>596.6568905349363</v>
+        <v>596.656890534936</v>
       </c>
       <c r="N14" t="n">
-        <v>610.9718353132373</v>
+        <v>610.9718353132371</v>
       </c>
       <c r="O14" t="n">
-        <v>563.4534181087705</v>
+        <v>563.4534181087702</v>
       </c>
       <c r="P14" t="n">
-        <v>446.0449605831606</v>
+        <v>446.0449605831603</v>
       </c>
       <c r="Q14" t="n">
-        <v>286.3018494031412</v>
+        <v>286.301849403141</v>
       </c>
       <c r="R14" t="n">
-        <v>80.267672257713</v>
+        <v>80.26767225771289</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>96.5461500285315</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>96.54615002853279</v>
       </c>
       <c r="L15" t="n">
-        <v>408.6008674534143</v>
+        <v>408.6008674534142</v>
       </c>
       <c r="M15" t="n">
-        <v>496.3703319534906</v>
+        <v>496.3703319534904</v>
       </c>
       <c r="N15" t="n">
-        <v>524.0619644278631</v>
+        <v>524.0619644278628</v>
       </c>
       <c r="O15" t="n">
-        <v>456.9700760618518</v>
+        <v>456.9700760618516</v>
       </c>
       <c r="P15" t="n">
-        <v>347.2304234925057</v>
+        <v>347.2304234925056</v>
       </c>
       <c r="Q15" t="n">
-        <v>181.6909118139407</v>
+        <v>181.6909118139406</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>56.00609145540824</v>
+        <v>56.00609145540818</v>
       </c>
       <c r="K16" t="n">
-        <v>223.1835325654242</v>
+        <v>223.1835325654241</v>
       </c>
       <c r="L16" t="n">
-        <v>341.6853899626195</v>
+        <v>341.6853899626194</v>
       </c>
       <c r="M16" t="n">
-        <v>370.7533996206284</v>
+        <v>370.7533996206283</v>
       </c>
       <c r="N16" t="n">
-        <v>367.4272239894692</v>
+        <v>367.4272239894691</v>
       </c>
       <c r="O16" t="n">
-        <v>323.2004348965157</v>
+        <v>323.2004348965156</v>
       </c>
       <c r="P16" t="n">
-        <v>252.795541776783</v>
+        <v>252.7955417767829</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.74467096335489</v>
+        <v>90.74467096335484</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>132.9061636449188</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L18" t="n">
         <v>458.3824541356842</v>
       </c>
       <c r="M18" t="n">
-        <v>207.1497467755423</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N18" t="n">
-        <v>583.6922706327296</v>
+        <v>532.2460412499712</v>
       </c>
       <c r="O18" t="n">
         <v>511.5201565133839</v>
       </c>
       <c r="P18" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K19" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L19" t="n">
         <v>401.8727935817349</v>
       </c>
       <c r="M19" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N19" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O19" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P19" t="n">
-        <v>307.6533340553059</v>
+        <v>307.653334055306</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641582</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36203,7 +36203,7 @@
         <v>306.102070050368</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M21" t="n">
         <v>554.4630955659486</v>
@@ -36212,13 +36212,13 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O21" t="n">
-        <v>511.5201565133839</v>
+        <v>69.06225485572071</v>
       </c>
       <c r="P21" t="n">
         <v>391.0116722749048</v>
       </c>
       <c r="Q21" t="n">
-        <v>15.92455247802093</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>101.2059290193558</v>
+        <v>101.205929019356</v>
       </c>
       <c r="K22" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414979</v>
       </c>
       <c r="L22" t="n">
-        <v>401.8727935817349</v>
+        <v>401.872793581735</v>
       </c>
       <c r="M22" t="n">
-        <v>432.4942538895098</v>
+        <v>432.49425388951</v>
       </c>
       <c r="N22" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010909</v>
       </c>
       <c r="O22" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908714</v>
       </c>
       <c r="P22" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553061</v>
       </c>
       <c r="Q22" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641583</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36370,7 +36370,7 @@
         <v>687.4322072151681</v>
       </c>
       <c r="O23" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348801</v>
       </c>
       <c r="P23" t="n">
         <v>507.665444827693</v>
@@ -36443,13 +36443,13 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M24" t="n">
-        <v>554.4630955659486</v>
+        <v>503.01686618319</v>
       </c>
       <c r="N24" t="n">
         <v>583.6922706327296</v>
       </c>
       <c r="O24" t="n">
-        <v>460.0739271306256</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K25" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414979</v>
       </c>
       <c r="L25" t="n">
-        <v>401.8727935817349</v>
+        <v>401.872793581735</v>
       </c>
       <c r="M25" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N25" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010909</v>
       </c>
       <c r="O25" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P25" t="n">
-        <v>307.6533340553059</v>
+        <v>307.653334055306</v>
       </c>
       <c r="Q25" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641552</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>332.5762668227516</v>
       </c>
       <c r="R26" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440238</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,16 +36671,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L27" t="n">
         <v>458.3824541356842</v>
       </c>
       <c r="M27" t="n">
-        <v>551.013427603572</v>
+        <v>503.01686618319</v>
       </c>
       <c r="N27" t="n">
         <v>583.6922706327296</v>
@@ -36689,7 +36689,7 @@
         <v>511.5201565133839</v>
       </c>
       <c r="P27" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36753,7 +36753,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K28" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L28" t="n">
         <v>401.8727935817349</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>255.0635279116857</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K29" t="n">
         <v>433.5251384721831</v>
@@ -36844,7 +36844,7 @@
         <v>687.4322072151681</v>
       </c>
       <c r="O29" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348811</v>
       </c>
       <c r="P29" t="n">
         <v>507.665444827693</v>
@@ -36914,10 +36914,10 @@
         <v>306.102070050368</v>
       </c>
       <c r="L30" t="n">
-        <v>334.4150015371014</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>503.01686618319</v>
       </c>
       <c r="N30" t="n">
         <v>583.6922706327296</v>
@@ -36926,13 +36926,13 @@
         <v>511.5201565133839</v>
       </c>
       <c r="P30" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,13 +36990,13 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K31" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L31" t="n">
         <v>401.8727935817349</v>
       </c>
       <c r="M31" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N31" t="n">
         <v>428.4516387010907</v>
@@ -37151,7 +37151,7 @@
         <v>306.102070050368</v>
       </c>
       <c r="L33" t="n">
-        <v>458.3824541356842</v>
+        <v>406.9362247529257</v>
       </c>
       <c r="M33" t="n">
         <v>554.4630955659486</v>
@@ -37160,7 +37160,7 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O33" t="n">
-        <v>460.0739271306256</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K34" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L34" t="n">
         <v>401.8727935817349</v>
       </c>
       <c r="M34" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N34" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O34" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P34" t="n">
         <v>307.6533340553059</v>
       </c>
       <c r="Q34" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641582</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37388,7 +37388,7 @@
         <v>306.102070050368</v>
       </c>
       <c r="L36" t="n">
-        <v>170.9635782460575</v>
+        <v>15.92455247802082</v>
       </c>
       <c r="M36" t="n">
         <v>554.4630955659486</v>
@@ -37400,13 +37400,13 @@
         <v>511.5201565133839</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K37" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L37" t="n">
         <v>401.8727935817349</v>
@@ -37564,7 +37564,7 @@
         <v>332.5762668227516</v>
       </c>
       <c r="R38" t="n">
-        <v>107.1851555440238</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K39" t="n">
-        <v>151.5893578056601</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L39" t="n">
         <v>458.3824541356842</v>
@@ -37631,13 +37631,13 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N39" t="n">
-        <v>583.6922706327296</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>511.5201565133839</v>
+        <v>416.7818789815822</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q39" t="n">
         <v>210.9575171831111</v>
@@ -37707,10 +37707,10 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M40" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N40" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O40" t="n">
         <v>381.9794231908712</v>
@@ -37719,7 +37719,7 @@
         <v>307.6533340553059</v>
       </c>
       <c r="Q40" t="n">
-        <v>138.450299564157</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,13 +37777,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116848</v>
       </c>
       <c r="K41" t="n">
         <v>433.5251384721831</v>
       </c>
       <c r="L41" t="n">
-        <v>575.1007761169894</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M41" t="n">
         <v>671.8997542381569</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L42" t="n">
-        <v>218.9601396664396</v>
+        <v>15.92455247802082</v>
       </c>
       <c r="M42" t="n">
         <v>554.4630955659486</v>
@@ -37877,10 +37877,10 @@
         <v>391.0116722749048</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38096,10 +38096,10 @@
         <v>132.9061636449188</v>
       </c>
       <c r="K45" t="n">
-        <v>111.069105345278</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>15.92455247802082</v>
       </c>
       <c r="M45" t="n">
         <v>554.4630955659486</v>
@@ -38114,7 +38114,7 @@
         <v>391.0116722749048</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38184,13 +38184,13 @@
         <v>432.4942538895098</v>
       </c>
       <c r="N46" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010906</v>
       </c>
       <c r="O46" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P46" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q46" t="n">
         <v>138.4502995641581</v>
